--- a/로스트아크 - 비브린 큐브 기획서/vivrincube_contant_table.xlsx
+++ b/로스트아크 - 비브린 큐브 기획서/vivrincube_contant_table.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\개인 자료\포트폴리오\portfolio\로스트아크 - 비브린 큐브 기획서\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SinWooChi\portfolio\로스트아크 - 비브린 큐브 기획서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA3FB8E4-CCF6-4DD1-BB01-5A6AAA55BA9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9888ED6-B6D1-4F7E-B6C2-DB557D4E7994}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="540" windowWidth="29040" windowHeight="15720" xr2:uid="{6832B32A-0745-41EA-9852-9906C71E324C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6832B32A-0745-41EA-9852-9906C71E324C}"/>
   </bookViews>
   <sheets>
     <sheet name="info" sheetId="2" r:id="rId1"/>
-    <sheet name="vivrin_cube_content_table" sheetId="1" r:id="rId2"/>
+    <sheet name="vivrincube_content_table" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,11 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="205">
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="204">
   <si>
     <t>column</t>
   </si>
@@ -742,11 +738,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>비브린 큐브 로딩 중 랜덤으로 vivrincube_content_id를 선택하여 5개의 콘텐츠를 선별합니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>콘텐츠 타입 (콘텐츠 타입 중복 검사용)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#content_name</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -815,23 +811,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1" tint="0.499984740745262"/>
+      <color theme="0" tint="-0.249977111117893"/>
       <name val="맑은 고딕"/>
-      <family val="2"/>
+      <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1" tint="0.499984740745262"/>
+      <color theme="0" tint="-0.249977111117893"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -847,6 +844,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -954,7 +957,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -979,23 +982,26 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1003,20 +1009,11 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1029,6 +1026,21 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1370,356 +1382,353 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDA345ED-973C-497C-8904-E3AD2A2F3345}">
-  <dimension ref="B2:H24"/>
+  <dimension ref="B2:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11:D20"/>
+      <selection activeCell="C10" sqref="C10:C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="23.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="41.75" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.25" style="1" customWidth="1"/>
+    <col min="1" max="1" width="5.69921875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="23.69921875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="41.69921875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.19921875" style="1" customWidth="1"/>
     <col min="5" max="5" width="9" style="1"/>
-    <col min="6" max="6" width="26.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="32.125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="18.25" style="1" customWidth="1"/>
+    <col min="6" max="6" width="26.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32.09765625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="18.19921875" style="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" ht="31.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:8" ht="30" x14ac:dyDescent="0.4">
       <c r="B2" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B3" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B6" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B7" s="5" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B3" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B4" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B5" s="1" t="s">
+      <c r="C7" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B8" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B9" s="23" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B7" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="7" t="s">
+      <c r="C9" s="24" t="s">
+        <v>143</v>
+      </c>
+      <c r="D9" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="27"/>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B10" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="6">
+        <v>0</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="H10" s="13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B11" s="20"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="6">
+        <v>1</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" s="19"/>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B12" s="20"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="6">
         <v>2</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B8" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="G8" s="4"/>
-      <c r="H8" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B9" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B10" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="D10" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="20"/>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B11" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>204</v>
-      </c>
-      <c r="D11" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="F11" s="6">
-        <v>0</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="H11" s="16" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B12" s="22"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="6">
-        <v>1</v>
       </c>
       <c r="G12" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H12" s="21"/>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B13" s="22"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
+      <c r="H12" s="19"/>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B13" s="20"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
       <c r="F13" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G13" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H13" s="21"/>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B14" s="22"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
+      <c r="H13" s="19"/>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B14" s="20"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
       <c r="F14" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G14" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H14" s="21"/>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B15" s="22"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
+      <c r="H14" s="19"/>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B15" s="20"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
       <c r="F15" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G15" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H15" s="21"/>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B16" s="22"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
+      <c r="H15" s="19"/>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B16" s="20"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
       <c r="F16" s="6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G16" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H16" s="21"/>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B17" s="22"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
+      <c r="H16" s="19"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B17" s="20"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
       <c r="F17" s="6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G17" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H17" s="21"/>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B18" s="22"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
+      <c r="H17" s="19"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B18" s="20"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
       <c r="F18" s="6">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G18" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H18" s="21"/>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B19" s="22"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
+      <c r="H18" s="19"/>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B19" s="18"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
       <c r="F19" s="6">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G19" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H19" s="21"/>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B20" s="13"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
+      <c r="H19" s="14"/>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B20" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>21</v>
+      </c>
       <c r="F20" s="6">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H20" s="17"/>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B21" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="C21" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="D21" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="E21" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="F21" s="6">
-        <v>0</v>
+      <c r="H20" s="6"/>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B21" s="18"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="6" t="s">
+        <v>23</v>
       </c>
       <c r="G21" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="H21" s="6"/>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B22" s="13"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="6" t="s">
-        <v>24</v>
+      <c r="H21" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B22" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F22" s="6">
+        <v>0</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="H22" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B23" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="C23" s="14" t="s">
-        <v>146</v>
-      </c>
-      <c r="D23" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="E23" s="16" t="s">
-        <v>22</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="H22" s="13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B23" s="18"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
       <c r="F23" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G23" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="H23" s="16" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B24" s="13"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="6">
-        <v>1</v>
-      </c>
-      <c r="G24" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="H24" s="17"/>
+      <c r="H23" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="D10:H10"/>
-    <mergeCell ref="H11:H20"/>
-    <mergeCell ref="D11:D20"/>
-    <mergeCell ref="E11:E20"/>
-    <mergeCell ref="B11:B20"/>
-    <mergeCell ref="C11:C20"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="D9:H9"/>
+    <mergeCell ref="H10:H19"/>
+    <mergeCell ref="D10:D19"/>
+    <mergeCell ref="E10:E19"/>
+    <mergeCell ref="B10:B19"/>
+    <mergeCell ref="C10:C19"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="B22:B23"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1730,61 +1739,61 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DE386FE-55B6-41F9-92F6-3484105CF4A5}">
   <dimension ref="A1:P101"/>
   <sheetViews>
-    <sheetView showRowColHeaders="0" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D28" sqref="D28"/>
+      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="6.5" style="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.75" style="11" customWidth="1"/>
+    <col min="1" max="1" width="21" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.69921875" style="10" customWidth="1"/>
     <col min="3" max="3" width="36.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.125" style="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.375" style="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="34" style="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="37.875" style="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="38.75" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.09765625" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.3984375" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="37.8984375" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="38.69921875" style="10" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="F1" s="8" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A1" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="G1" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="G1" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="I1" s="11" t="s">
         <v>153</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>154</v>
       </c>
       <c r="J1" s="9"/>
       <c r="K1" s="9"/>
       <c r="L1" s="9"/>
       <c r="M1" s="9"/>
       <c r="N1" s="9"/>
-      <c r="O1" s="24"/>
-      <c r="P1" s="24"/>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="O1" s="22"/>
+      <c r="P1" s="22"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A2" s="6">
         <v>24000</v>
       </c>
@@ -1792,28 +1801,28 @@
         <v>3704</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D2" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H2" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="I2" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="I2" s="6" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A3" s="6">
         <v>24001</v>
       </c>
@@ -1821,7 +1830,7 @@
         <v>3705</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D3" s="6">
         <v>1</v>
@@ -1830,19 +1839,19 @@
         <v>1</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H3" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="I3" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="I3" s="6" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A4" s="6">
         <v>24002</v>
       </c>
@@ -1850,7 +1859,7 @@
         <v>3706</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D4" s="6">
         <v>1</v>
@@ -1859,19 +1868,19 @@
         <v>1</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H4" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="I4" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="I4" s="6" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A5" s="6">
         <v>24003</v>
       </c>
@@ -1879,7 +1888,7 @@
         <v>3707</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D5" s="6">
         <v>1</v>
@@ -1888,19 +1897,19 @@
         <v>1</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H5" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="I5" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="I5" s="6" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A6" s="6">
         <v>24004</v>
       </c>
@@ -1908,7 +1917,7 @@
         <v>3708</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D6" s="6">
         <v>1</v>
@@ -1917,19 +1926,19 @@
         <v>1</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H6" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="I6" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="I6" s="6" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A7" s="6">
         <v>24005</v>
       </c>
@@ -1937,7 +1946,7 @@
         <v>3709</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D7" s="6">
         <v>1</v>
@@ -1946,19 +1955,19 @@
         <v>1</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H7" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="I7" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="I7" s="6" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A8" s="6">
         <v>24006</v>
       </c>
@@ -1966,7 +1975,7 @@
         <v>3710</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D8" s="6">
         <v>1</v>
@@ -1975,19 +1984,19 @@
         <v>1</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H8" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="I8" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="I8" s="6" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A9" s="6">
         <v>24007</v>
       </c>
@@ -1995,7 +2004,7 @@
         <v>3711</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D9" s="6">
         <v>1</v>
@@ -2004,19 +2013,19 @@
         <v>1</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H9" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="I9" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="I9" s="6" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A10" s="6">
         <v>24008</v>
       </c>
@@ -2024,7 +2033,7 @@
         <v>3712</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D10" s="6">
         <v>1</v>
@@ -2033,19 +2042,19 @@
         <v>1</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G10" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="H10" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="H10" s="6" t="s">
+      <c r="I10" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="I10" s="6" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A11" s="6">
         <v>24009</v>
       </c>
@@ -2053,7 +2062,7 @@
         <v>3713</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D11" s="6">
         <v>2</v>
@@ -2062,19 +2071,19 @@
         <v>1</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G11" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="H11" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="H11" s="6" t="s">
+      <c r="I11" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="I11" s="6" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A12" s="6">
         <v>24010</v>
       </c>
@@ -2082,7 +2091,7 @@
         <v>3714</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D12" s="6">
         <v>2</v>
@@ -2091,19 +2100,19 @@
         <v>1</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G12" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="H12" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="H12" s="6" t="s">
+      <c r="I12" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="I12" s="6" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A13" s="6">
         <v>24011</v>
       </c>
@@ -2111,7 +2120,7 @@
         <v>3715</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D13" s="6">
         <v>2</v>
@@ -2120,19 +2129,19 @@
         <v>1</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G13" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="H13" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="H13" s="6" t="s">
+      <c r="I13" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="I13" s="6" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A14" s="6">
         <v>24012</v>
       </c>
@@ -2140,7 +2149,7 @@
         <v>3716</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D14" s="6">
         <v>2</v>
@@ -2149,19 +2158,19 @@
         <v>1</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G14" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="H14" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="H14" s="6" t="s">
+      <c r="I14" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="I14" s="6" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A15" s="6">
         <v>24013</v>
       </c>
@@ -2169,7 +2178,7 @@
         <v>3717</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D15" s="6">
         <v>2</v>
@@ -2178,19 +2187,19 @@
         <v>1</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G15" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="H15" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="H15" s="6" t="s">
+      <c r="I15" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="I15" s="6" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A16" s="6">
         <v>24014</v>
       </c>
@@ -2198,7 +2207,7 @@
         <v>3718</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D16" s="6">
         <v>2</v>
@@ -2207,19 +2216,19 @@
         <v>1</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G16" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="H16" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="H16" s="6" t="s">
+      <c r="I16" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="I16" s="6" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A17" s="6">
         <v>24015</v>
       </c>
@@ -2227,7 +2236,7 @@
         <v>3719</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D17" s="6">
         <v>2</v>
@@ -2236,19 +2245,19 @@
         <v>1</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G17" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="H17" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="H17" s="6" t="s">
+      <c r="I17" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="I17" s="6" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A18" s="6">
         <v>24016</v>
       </c>
@@ -2256,7 +2265,7 @@
         <v>3720</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D18" s="6">
         <v>2</v>
@@ -2265,19 +2274,19 @@
         <v>1</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G18" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="H18" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="H18" s="6" t="s">
+      <c r="I18" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="I18" s="6" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A19" s="6">
         <v>24017</v>
       </c>
@@ -2285,7 +2294,7 @@
         <v>3721</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D19" s="6">
         <v>2</v>
@@ -2294,19 +2303,19 @@
         <v>1</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G19" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="H19" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="H19" s="6" t="s">
+      <c r="I19" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="I19" s="6" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A20" s="6">
         <v>24018</v>
       </c>
@@ -2314,7 +2323,7 @@
         <v>3722</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D20" s="6">
         <v>2</v>
@@ -2323,19 +2332,19 @@
         <v>1</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G20" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="H20" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="H20" s="6" t="s">
+      <c r="I20" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="I20" s="6" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A21" s="6">
         <v>24019</v>
       </c>
@@ -2343,7 +2352,7 @@
         <v>3723</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D21" s="6">
         <v>2</v>
@@ -2352,19 +2361,19 @@
         <v>1</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G21" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="H21" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="H21" s="6" t="s">
+      <c r="I21" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="I21" s="6" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A22" s="6">
         <v>24020</v>
       </c>
@@ -2372,7 +2381,7 @@
         <v>3724</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D22" s="6">
         <v>2</v>
@@ -2381,19 +2390,19 @@
         <v>1</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G22" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="H22" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="H22" s="6" t="s">
+      <c r="I22" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="I22" s="6" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A23" s="6">
         <v>24021</v>
       </c>
@@ -2401,7 +2410,7 @@
         <v>3725</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D23" s="6">
         <v>2</v>
@@ -2410,19 +2419,19 @@
         <v>1</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G23" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="H23" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="H23" s="6" t="s">
+      <c r="I23" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="I23" s="6" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A24" s="6">
         <v>24022</v>
       </c>
@@ -2430,7 +2439,7 @@
         <v>3726</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D24" s="6">
         <v>2</v>
@@ -2439,19 +2448,19 @@
         <v>1</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G24" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="H24" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="H24" s="6" t="s">
+      <c r="I24" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="I24" s="6" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A25" s="6">
         <v>24023</v>
       </c>
@@ -2459,7 +2468,7 @@
         <v>3727</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D25" s="6">
         <v>2</v>
@@ -2468,19 +2477,19 @@
         <v>1</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G25" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="H25" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="H25" s="6" t="s">
+      <c r="I25" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="I25" s="6" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A26" s="6">
         <v>24024</v>
       </c>
@@ -2488,7 +2497,7 @@
         <v>3728</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D26" s="6">
         <v>2</v>
@@ -2497,19 +2506,19 @@
         <v>1</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G26" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="H26" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="H26" s="6" t="s">
+      <c r="I26" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="I26" s="6" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A27" s="6">
         <v>24025</v>
       </c>
@@ -2517,7 +2526,7 @@
         <v>3729</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D27" s="6">
         <v>2</v>
@@ -2526,19 +2535,19 @@
         <v>1</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G27" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="H27" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="H27" s="6" t="s">
+      <c r="I27" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="I27" s="6" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A28" s="6">
         <v>24026</v>
       </c>
@@ -2546,7 +2555,7 @@
         <v>3730</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D28" s="6">
         <v>2</v>
@@ -2555,19 +2564,19 @@
         <v>1</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G28" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="H28" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="H28" s="6" t="s">
+      <c r="I28" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="I28" s="6" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A29" s="6">
         <v>24027</v>
       </c>
@@ -2575,7 +2584,7 @@
         <v>3731</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D29" s="6">
         <v>2</v>
@@ -2584,19 +2593,19 @@
         <v>1</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G29" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="H29" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="H29" s="6" t="s">
+      <c r="I29" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="I29" s="6" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A30" s="6">
         <v>24028</v>
       </c>
@@ -2604,7 +2613,7 @@
         <v>3732</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D30" s="6">
         <v>2</v>
@@ -2613,19 +2622,19 @@
         <v>1</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G30" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="H30" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="H30" s="6" t="s">
+      <c r="I30" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="I30" s="6" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A31" s="6">
         <v>24029</v>
       </c>
@@ -2633,7 +2642,7 @@
         <v>3733</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D31" s="6">
         <v>2</v>
@@ -2642,19 +2651,19 @@
         <v>1</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G31" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="H31" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="H31" s="6" t="s">
+      <c r="I31" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="I31" s="6" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A32" s="6">
         <v>24030</v>
       </c>
@@ -2662,7 +2671,7 @@
         <v>3734</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D32" s="6">
         <v>3</v>
@@ -2671,19 +2680,19 @@
         <v>1</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G32" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="H32" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="H32" s="6" t="s">
+      <c r="I32" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="I32" s="6" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A33" s="6">
         <v>24031</v>
       </c>
@@ -2691,7 +2700,7 @@
         <v>3735</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D33" s="6">
         <v>3</v>
@@ -2700,19 +2709,19 @@
         <v>1</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G33" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="H33" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="H33" s="6" t="s">
+      <c r="I33" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="I33" s="6" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A34" s="6">
         <v>24032</v>
       </c>
@@ -2720,7 +2729,7 @@
         <v>3736</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D34" s="6">
         <v>3</v>
@@ -2729,19 +2738,19 @@
         <v>1</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G34" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="H34" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="H34" s="6" t="s">
+      <c r="I34" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="I34" s="6" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A35" s="6">
         <v>24033</v>
       </c>
@@ -2749,7 +2758,7 @@
         <v>3737</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D35" s="6">
         <v>3</v>
@@ -2758,19 +2767,19 @@
         <v>1</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G35" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="H35" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="H35" s="6" t="s">
+      <c r="I35" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="I35" s="6" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A36" s="6">
         <v>24034</v>
       </c>
@@ -2778,7 +2787,7 @@
         <v>3738</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D36" s="6">
         <v>3</v>
@@ -2787,19 +2796,19 @@
         <v>1</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G36" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="H36" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="H36" s="6" t="s">
+      <c r="I36" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="I36" s="6" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A37" s="6">
         <v>24035</v>
       </c>
@@ -2807,7 +2816,7 @@
         <v>3739</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D37" s="6">
         <v>3</v>
@@ -2816,19 +2825,19 @@
         <v>1</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G37" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="H37" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="H37" s="6" t="s">
+      <c r="I37" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="I37" s="6" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A38" s="6">
         <v>24036</v>
       </c>
@@ -2836,7 +2845,7 @@
         <v>3740</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D38" s="6">
         <v>3</v>
@@ -2845,19 +2854,19 @@
         <v>1</v>
       </c>
       <c r="F38" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G38" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="H38" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="H38" s="6" t="s">
+      <c r="I38" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="I38" s="6" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A39" s="6">
         <v>24037</v>
       </c>
@@ -2865,7 +2874,7 @@
         <v>3741</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D39" s="6">
         <v>3</v>
@@ -2874,19 +2883,19 @@
         <v>1</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G39" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="H39" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="H39" s="6" t="s">
+      <c r="I39" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="I39" s="6" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A40" s="6">
         <v>24038</v>
       </c>
@@ -2894,7 +2903,7 @@
         <v>3742</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D40" s="6">
         <v>3</v>
@@ -2903,19 +2912,19 @@
         <v>1</v>
       </c>
       <c r="F40" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G40" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="H40" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="H40" s="6" t="s">
+      <c r="I40" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="I40" s="6" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A41" s="6">
         <v>24039</v>
       </c>
@@ -2923,7 +2932,7 @@
         <v>3743</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D41" s="6">
         <v>3</v>
@@ -2932,19 +2941,19 @@
         <v>1</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G41" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="H41" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="H41" s="6" t="s">
+      <c r="I41" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="I41" s="6" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A42" s="6">
         <v>24040</v>
       </c>
@@ -2952,7 +2961,7 @@
         <v>3744</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D42" s="6">
         <v>3</v>
@@ -2961,19 +2970,19 @@
         <v>1</v>
       </c>
       <c r="F42" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G42" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="H42" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="H42" s="6" t="s">
+      <c r="I42" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="I42" s="6" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A43" s="6">
         <v>24041</v>
       </c>
@@ -2981,7 +2990,7 @@
         <v>3745</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D43" s="6">
         <v>3</v>
@@ -2990,19 +2999,19 @@
         <v>1</v>
       </c>
       <c r="F43" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G43" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="H43" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="H43" s="6" t="s">
+      <c r="I43" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="I43" s="6" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A44" s="6">
         <v>24042</v>
       </c>
@@ -3010,7 +3019,7 @@
         <v>3746</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D44" s="6">
         <v>3</v>
@@ -3019,19 +3028,19 @@
         <v>1</v>
       </c>
       <c r="F44" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G44" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="H44" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="H44" s="6" t="s">
+      <c r="I44" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="I44" s="6" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A45" s="6">
         <v>24043</v>
       </c>
@@ -3039,7 +3048,7 @@
         <v>3747</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D45" s="6">
         <v>3</v>
@@ -3048,19 +3057,19 @@
         <v>1</v>
       </c>
       <c r="F45" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G45" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="H45" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="H45" s="6" t="s">
+      <c r="I45" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="I45" s="6" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A46" s="6">
         <v>24044</v>
       </c>
@@ -3068,7 +3077,7 @@
         <v>3748</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D46" s="6">
         <v>3</v>
@@ -3077,19 +3086,19 @@
         <v>1</v>
       </c>
       <c r="F46" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G46" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="H46" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="H46" s="6" t="s">
+      <c r="I46" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="I46" s="6" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A47" s="6">
         <v>24045</v>
       </c>
@@ -3097,7 +3106,7 @@
         <v>3749</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D47" s="6">
         <v>3</v>
@@ -3106,19 +3115,19 @@
         <v>1</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G47" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="H47" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="H47" s="6" t="s">
+      <c r="I47" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="I47" s="6" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A48" s="6">
         <v>24046</v>
       </c>
@@ -3126,7 +3135,7 @@
         <v>3750</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D48" s="6">
         <v>3</v>
@@ -3135,19 +3144,19 @@
         <v>1</v>
       </c>
       <c r="F48" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G48" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="H48" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="H48" s="6" t="s">
+      <c r="I48" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="I48" s="6" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A49" s="6">
         <v>24047</v>
       </c>
@@ -3155,7 +3164,7 @@
         <v>3751</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D49" s="6">
         <v>3</v>
@@ -3164,19 +3173,19 @@
         <v>1</v>
       </c>
       <c r="F49" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G49" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="H49" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="H49" s="6" t="s">
+      <c r="I49" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="I49" s="6" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A50" s="6">
         <v>24048</v>
       </c>
@@ -3184,7 +3193,7 @@
         <v>3752</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D50" s="6">
         <v>4</v>
@@ -3193,19 +3202,19 @@
         <v>1</v>
       </c>
       <c r="F50" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G50" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="H50" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="H50" s="6" t="s">
+      <c r="I50" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="I50" s="6" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A51" s="6">
         <v>24049</v>
       </c>
@@ -3213,7 +3222,7 @@
         <v>3753</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D51" s="6">
         <v>4</v>
@@ -3222,19 +3231,19 @@
         <v>1</v>
       </c>
       <c r="F51" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G51" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="H51" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="H51" s="6" t="s">
+      <c r="I51" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="I51" s="6" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A52" s="6">
         <v>24050</v>
       </c>
@@ -3242,7 +3251,7 @@
         <v>3754</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D52" s="6">
         <v>4</v>
@@ -3251,19 +3260,19 @@
         <v>1</v>
       </c>
       <c r="F52" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G52" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="H52" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="H52" s="6" t="s">
+      <c r="I52" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="I52" s="6" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A53" s="6">
         <v>24051</v>
       </c>
@@ -3271,7 +3280,7 @@
         <v>3755</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D53" s="6">
         <v>4</v>
@@ -3280,19 +3289,19 @@
         <v>1</v>
       </c>
       <c r="F53" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G53" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="H53" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="H53" s="6" t="s">
+      <c r="I53" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="I53" s="6" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A54" s="6">
         <v>24052</v>
       </c>
@@ -3300,7 +3309,7 @@
         <v>3756</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D54" s="6">
         <v>5</v>
@@ -3309,19 +3318,19 @@
         <v>1</v>
       </c>
       <c r="F54" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G54" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="H54" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="H54" s="6" t="s">
+      <c r="I54" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="I54" s="6" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A55" s="6">
         <v>24053</v>
       </c>
@@ -3329,7 +3338,7 @@
         <v>3757</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D55" s="6">
         <v>6</v>
@@ -3338,19 +3347,19 @@
         <v>1</v>
       </c>
       <c r="F55" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G55" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="H55" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="H55" s="6" t="s">
+      <c r="I55" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="I55" s="6" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A56" s="6">
         <v>24054</v>
       </c>
@@ -3358,7 +3367,7 @@
         <v>3758</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D56" s="6">
         <v>6</v>
@@ -3367,19 +3376,19 @@
         <v>1</v>
       </c>
       <c r="F56" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G56" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="H56" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="H56" s="6" t="s">
+      <c r="I56" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="I56" s="6" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A57" s="6">
         <v>24055</v>
       </c>
@@ -3387,7 +3396,7 @@
         <v>3759</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D57" s="6">
         <v>6</v>
@@ -3396,19 +3405,19 @@
         <v>1</v>
       </c>
       <c r="F57" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G57" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="H57" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="H57" s="6" t="s">
+      <c r="I57" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="I57" s="6" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A58" s="6">
         <v>24056</v>
       </c>
@@ -3416,7 +3425,7 @@
         <v>3760</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D58" s="6">
         <v>6</v>
@@ -3425,19 +3434,19 @@
         <v>1</v>
       </c>
       <c r="F58" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G58" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="H58" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="H58" s="6" t="s">
+      <c r="I58" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="I58" s="6" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A59" s="6">
         <v>24057</v>
       </c>
@@ -3445,7 +3454,7 @@
         <v>3761</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D59" s="6">
         <v>6</v>
@@ -3454,19 +3463,19 @@
         <v>1</v>
       </c>
       <c r="F59" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G59" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="H59" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="H59" s="6" t="s">
+      <c r="I59" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="I59" s="6" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A60" s="6">
         <v>24058</v>
       </c>
@@ -3474,7 +3483,7 @@
         <v>3762</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D60" s="6">
         <v>6</v>
@@ -3483,19 +3492,19 @@
         <v>1</v>
       </c>
       <c r="F60" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G60" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="H60" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="H60" s="6" t="s">
+      <c r="I60" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="I60" s="6" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A61" s="6">
         <v>24059</v>
       </c>
@@ -3503,7 +3512,7 @@
         <v>3763</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D61" s="6">
         <v>7</v>
@@ -3512,19 +3521,19 @@
         <v>1</v>
       </c>
       <c r="F61" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G61" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="H61" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="H61" s="6" t="s">
+      <c r="I61" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="I61" s="6" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A62" s="6">
         <v>24060</v>
       </c>
@@ -3532,7 +3541,7 @@
         <v>3764</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D62" s="6">
         <v>7</v>
@@ -3541,19 +3550,19 @@
         <v>1</v>
       </c>
       <c r="F62" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G62" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="H62" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="H62" s="6" t="s">
+      <c r="I62" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="I62" s="6" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A63" s="6">
         <v>24061</v>
       </c>
@@ -3561,7 +3570,7 @@
         <v>3765</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D63" s="6">
         <v>7</v>
@@ -3570,19 +3579,19 @@
         <v>1</v>
       </c>
       <c r="F63" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G63" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="H63" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="H63" s="6" t="s">
+      <c r="I63" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="I63" s="6" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A64" s="6">
         <v>24062</v>
       </c>
@@ -3590,7 +3599,7 @@
         <v>3766</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D64" s="6">
         <v>7</v>
@@ -3599,19 +3608,19 @@
         <v>1</v>
       </c>
       <c r="F64" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G64" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="H64" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="H64" s="6" t="s">
+      <c r="I64" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="I64" s="6" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A65" s="6">
         <v>24063</v>
       </c>
@@ -3619,7 +3628,7 @@
         <v>3767</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D65" s="6">
         <v>7</v>
@@ -3628,19 +3637,19 @@
         <v>1</v>
       </c>
       <c r="F65" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G65" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="H65" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="H65" s="6" t="s">
+      <c r="I65" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="I65" s="6" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A66" s="6">
         <v>24064</v>
       </c>
@@ -3648,7 +3657,7 @@
         <v>3768</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D66" s="6">
         <v>7</v>
@@ -3657,19 +3666,19 @@
         <v>1</v>
       </c>
       <c r="F66" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G66" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="H66" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="H66" s="6" t="s">
+      <c r="I66" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="I66" s="6" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A67" s="6">
         <v>24065</v>
       </c>
@@ -3677,7 +3686,7 @@
         <v>3769</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D67" s="6">
         <v>7</v>
@@ -3686,19 +3695,19 @@
         <v>1</v>
       </c>
       <c r="F67" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G67" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="H67" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="H67" s="6" t="s">
+      <c r="I67" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="I67" s="6" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A68" s="6">
         <v>24066</v>
       </c>
@@ -3706,7 +3715,7 @@
         <v>3770</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D68" s="6">
         <v>7</v>
@@ -3715,19 +3724,19 @@
         <v>1</v>
       </c>
       <c r="F68" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G68" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="H68" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="H68" s="6" t="s">
+      <c r="I68" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="I68" s="6" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A69" s="6">
         <v>24067</v>
       </c>
@@ -3735,7 +3744,7 @@
         <v>3771</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D69" s="6">
         <v>7</v>
@@ -3744,19 +3753,19 @@
         <v>1</v>
       </c>
       <c r="F69" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G69" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="H69" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="H69" s="6" t="s">
+      <c r="I69" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="I69" s="6" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A70" s="6">
         <v>24068</v>
       </c>
@@ -3764,7 +3773,7 @@
         <v>3772</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D70" s="6">
         <v>7</v>
@@ -3773,19 +3782,19 @@
         <v>1</v>
       </c>
       <c r="F70" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G70" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="H70" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="H70" s="6" t="s">
+      <c r="I70" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="I70" s="6" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A71" s="6">
         <v>24069</v>
       </c>
@@ -3793,7 +3802,7 @@
         <v>3773</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D71" s="6">
         <v>7</v>
@@ -3802,19 +3811,19 @@
         <v>1</v>
       </c>
       <c r="F71" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G71" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="H71" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="H71" s="6" t="s">
+      <c r="I71" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="I71" s="6" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A72" s="6">
         <v>24070</v>
       </c>
@@ -3822,7 +3831,7 @@
         <v>3774</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D72" s="6">
         <v>7</v>
@@ -3831,19 +3840,19 @@
         <v>1</v>
       </c>
       <c r="F72" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G72" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="H72" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="H72" s="6" t="s">
+      <c r="I72" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="I72" s="6" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A73" s="6">
         <v>24071</v>
       </c>
@@ -3851,7 +3860,7 @@
         <v>3775</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D73" s="6">
         <v>7</v>
@@ -3860,19 +3869,19 @@
         <v>1</v>
       </c>
       <c r="F73" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G73" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="H73" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="H73" s="6" t="s">
+      <c r="I73" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="I73" s="6" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A74" s="6">
         <v>24072</v>
       </c>
@@ -3880,7 +3889,7 @@
         <v>3776</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D74" s="6">
         <v>7</v>
@@ -3889,19 +3898,19 @@
         <v>1</v>
       </c>
       <c r="F74" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G74" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="H74" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="H74" s="6" t="s">
+      <c r="I74" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="I74" s="6" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A75" s="6">
         <v>24073</v>
       </c>
@@ -3909,7 +3918,7 @@
         <v>3777</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D75" s="6">
         <v>7</v>
@@ -3918,19 +3927,19 @@
         <v>1</v>
       </c>
       <c r="F75" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G75" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="H75" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="H75" s="6" t="s">
+      <c r="I75" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="I75" s="6" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A76" s="6">
         <v>24074</v>
       </c>
@@ -3938,7 +3947,7 @@
         <v>3778</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D76" s="6">
         <v>7</v>
@@ -3947,19 +3956,19 @@
         <v>1</v>
       </c>
       <c r="F76" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G76" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="H76" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="H76" s="6" t="s">
+      <c r="I76" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="I76" s="6" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A77" s="6">
         <v>24075</v>
       </c>
@@ -3967,7 +3976,7 @@
         <v>3779</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D77" s="6">
         <v>7</v>
@@ -3976,19 +3985,19 @@
         <v>1</v>
       </c>
       <c r="F77" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G77" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="H77" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="H77" s="6" t="s">
+      <c r="I77" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="I77" s="6" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A78" s="6">
         <v>24076</v>
       </c>
@@ -3996,7 +4005,7 @@
         <v>3780</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D78" s="6">
         <v>7</v>
@@ -4005,19 +4014,19 @@
         <v>1</v>
       </c>
       <c r="F78" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G78" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="H78" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="H78" s="6" t="s">
+      <c r="I78" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="I78" s="6" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A79" s="6">
         <v>24077</v>
       </c>
@@ -4025,7 +4034,7 @@
         <v>3781</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D79" s="6">
         <v>7</v>
@@ -4034,19 +4043,19 @@
         <v>1</v>
       </c>
       <c r="F79" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G79" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="H79" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="H79" s="6" t="s">
+      <c r="I79" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="I79" s="6" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A80" s="6">
         <v>24078</v>
       </c>
@@ -4054,7 +4063,7 @@
         <v>3782</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D80" s="6">
         <v>7</v>
@@ -4063,19 +4072,19 @@
         <v>1</v>
       </c>
       <c r="F80" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G80" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="H80" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="H80" s="6" t="s">
+      <c r="I80" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="I80" s="6" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A81" s="6">
         <v>24079</v>
       </c>
@@ -4083,7 +4092,7 @@
         <v>3783</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D81" s="6">
         <v>7</v>
@@ -4092,19 +4101,19 @@
         <v>1</v>
       </c>
       <c r="F81" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G81" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="H81" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="H81" s="6" t="s">
+      <c r="I81" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="I81" s="6" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A82" s="6">
         <v>24080</v>
       </c>
@@ -4112,7 +4121,7 @@
         <v>3784</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D82" s="6">
         <v>7</v>
@@ -4121,19 +4130,19 @@
         <v>1</v>
       </c>
       <c r="F82" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G82" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="H82" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="H82" s="6" t="s">
+      <c r="I82" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="I82" s="6" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A83" s="6">
         <v>24081</v>
       </c>
@@ -4141,7 +4150,7 @@
         <v>3785</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D83" s="6">
         <v>8</v>
@@ -4150,19 +4159,19 @@
         <v>1</v>
       </c>
       <c r="F83" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G83" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="H83" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="H83" s="6" t="s">
+      <c r="I83" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="I83" s="6" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A84" s="6">
         <v>24082</v>
       </c>
@@ -4170,7 +4179,7 @@
         <v>3786</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D84" s="6">
         <v>8</v>
@@ -4179,19 +4188,19 @@
         <v>1</v>
       </c>
       <c r="F84" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G84" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="H84" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="H84" s="6" t="s">
+      <c r="I84" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="I84" s="6" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A85" s="6">
         <v>24083</v>
       </c>
@@ -4199,7 +4208,7 @@
         <v>3787</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D85" s="6">
         <v>8</v>
@@ -4208,19 +4217,19 @@
         <v>1</v>
       </c>
       <c r="F85" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G85" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="H85" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="H85" s="6" t="s">
+      <c r="I85" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="I85" s="6" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A86" s="6">
         <v>24084</v>
       </c>
@@ -4228,7 +4237,7 @@
         <v>3788</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D86" s="6">
         <v>8</v>
@@ -4237,19 +4246,19 @@
         <v>1</v>
       </c>
       <c r="F86" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G86" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="H86" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="H86" s="6" t="s">
+      <c r="I86" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="I86" s="6" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A87" s="6">
         <v>24085</v>
       </c>
@@ -4257,7 +4266,7 @@
         <v>3789</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D87" s="6">
         <v>9</v>
@@ -4266,19 +4275,19 @@
         <v>0</v>
       </c>
       <c r="F87" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G87" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="H87" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="H87" s="6" t="s">
+      <c r="I87" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="I87" s="6" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A88" s="6">
         <v>24086</v>
       </c>
@@ -4286,7 +4295,7 @@
         <v>3790</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D88" s="6">
         <v>9</v>
@@ -4295,19 +4304,19 @@
         <v>0</v>
       </c>
       <c r="F88" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G88" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="H88" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="H88" s="6" t="s">
+      <c r="I88" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="I88" s="6" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A89" s="6">
         <v>24087</v>
       </c>
@@ -4315,7 +4324,7 @@
         <v>3791</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D89" s="6">
         <v>9</v>
@@ -4324,19 +4333,19 @@
         <v>0</v>
       </c>
       <c r="F89" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G89" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="H89" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="H89" s="6" t="s">
+      <c r="I89" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="I89" s="6" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A90" s="6">
         <v>24088</v>
       </c>
@@ -4344,7 +4353,7 @@
         <v>3792</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D90" s="6">
         <v>9</v>
@@ -4353,19 +4362,19 @@
         <v>0</v>
       </c>
       <c r="F90" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G90" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="H90" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="H90" s="6" t="s">
+      <c r="I90" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="I90" s="6" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A91" s="6">
         <v>24089</v>
       </c>
@@ -4373,7 +4382,7 @@
         <v>3793</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D91" s="6">
         <v>9</v>
@@ -4382,19 +4391,19 @@
         <v>0</v>
       </c>
       <c r="F91" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G91" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="H91" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="H91" s="6" t="s">
+      <c r="I91" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="I91" s="6" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A92" s="6">
         <v>24090</v>
       </c>
@@ -4402,7 +4411,7 @@
         <v>3794</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D92" s="6">
         <v>9</v>
@@ -4411,19 +4420,19 @@
         <v>0</v>
       </c>
       <c r="F92" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G92" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="H92" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="H92" s="6" t="s">
+      <c r="I92" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="I92" s="6" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A93" s="6">
         <v>24091</v>
       </c>
@@ -4431,7 +4440,7 @@
         <v>3795</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D93" s="6">
         <v>9</v>
@@ -4440,19 +4449,19 @@
         <v>0</v>
       </c>
       <c r="F93" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G93" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="H93" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="H93" s="6" t="s">
+      <c r="I93" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="I93" s="6" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A94" s="6">
         <v>24092</v>
       </c>
@@ -4460,7 +4469,7 @@
         <v>3796</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D94" s="6">
         <v>9</v>
@@ -4469,19 +4478,19 @@
         <v>0</v>
       </c>
       <c r="F94" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G94" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="H94" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="H94" s="6" t="s">
+      <c r="I94" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="I94" s="6" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A95" s="6">
         <v>24093</v>
       </c>
@@ -4489,7 +4498,7 @@
         <v>3797</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D95" s="6">
         <v>9</v>
@@ -4498,19 +4507,19 @@
         <v>0</v>
       </c>
       <c r="F95" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G95" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="H95" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="H95" s="6" t="s">
+      <c r="I95" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="I95" s="6" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A96" s="6">
         <v>24094</v>
       </c>
@@ -4518,7 +4527,7 @@
         <v>3798</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D96" s="6">
         <v>9</v>
@@ -4527,19 +4536,19 @@
         <v>0</v>
       </c>
       <c r="F96" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G96" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="H96" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="H96" s="6" t="s">
+      <c r="I96" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="I96" s="6" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A97" s="6">
         <v>24095</v>
       </c>
@@ -4547,7 +4556,7 @@
         <v>3799</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D97" s="6">
         <v>9</v>
@@ -4556,19 +4565,19 @@
         <v>0</v>
       </c>
       <c r="F97" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G97" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="H97" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="H97" s="6" t="s">
+      <c r="I97" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="I97" s="6" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A98" s="6">
         <v>24096</v>
       </c>
@@ -4576,7 +4585,7 @@
         <v>3800</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D98" s="6">
         <v>9</v>
@@ -4585,19 +4594,19 @@
         <v>0</v>
       </c>
       <c r="F98" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G98" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="H98" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="H98" s="6" t="s">
+      <c r="I98" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="I98" s="6" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A99" s="6">
         <v>24097</v>
       </c>
@@ -4605,7 +4614,7 @@
         <v>3801</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D99" s="6">
         <v>9</v>
@@ -4614,19 +4623,19 @@
         <v>0</v>
       </c>
       <c r="F99" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G99" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="H99" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="H99" s="6" t="s">
+      <c r="I99" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="I99" s="6" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A100" s="6">
         <v>24098</v>
       </c>
@@ -4634,7 +4643,7 @@
         <v>3802</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D100" s="6">
         <v>9</v>
@@ -4643,19 +4652,19 @@
         <v>0</v>
       </c>
       <c r="F100" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G100" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="H100" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="H100" s="6" t="s">
+      <c r="I100" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="I100" s="6" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A101" s="6">
         <v>24099</v>
       </c>
@@ -4663,7 +4672,7 @@
         <v>3803</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D101" s="6">
         <v>9</v>
@@ -4672,16 +4681,16 @@
         <v>0</v>
       </c>
       <c r="F101" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G101" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="H101" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="H101" s="6" t="s">
+      <c r="I101" s="6" t="s">
         <v>200</v>
-      </c>
-      <c r="I101" s="6" t="s">
-        <v>201</v>
       </c>
     </row>
   </sheetData>

--- a/로스트아크 - 비브린 큐브 기획서/vivrincube_contant_table.xlsx
+++ b/로스트아크 - 비브린 큐브 기획서/vivrincube_contant_table.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SinWooChi\portfolio\로스트아크 - 비브린 큐브 기획서\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\개인 자료\포트폴리오\portfolio\로스트아크 - 비브린 큐브 기획서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9888ED6-B6D1-4F7E-B6C2-DB557D4E7994}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C354149-FBCF-4C89-BF7E-23410E72BBE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6832B32A-0745-41EA-9852-9906C71E324C}"/>
+    <workbookView xWindow="28680" yWindow="540" windowWidth="29040" windowHeight="15720" xr2:uid="{6832B32A-0745-41EA-9852-9906C71E324C}"/>
   </bookViews>
   <sheets>
     <sheet name="info" sheetId="2" r:id="rId1"/>
@@ -164,10 +164,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>24000 ~ 25000</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>베른 북부 - 공명</t>
   </si>
   <si>
@@ -743,6 +739,10 @@
   </si>
   <si>
     <t>#content_name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>24000 ~ 24999</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -997,6 +997,12 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1015,6 +1021,15 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1026,21 +1041,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1384,39 +1384,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDA345ED-973C-497C-8904-E3AD2A2F3345}">
   <dimension ref="B2:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10:C19"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.69921875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="23.69921875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="41.69921875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.19921875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="5.75" style="1" customWidth="1"/>
+    <col min="2" max="2" width="23.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="41.75" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.25" style="1" customWidth="1"/>
     <col min="5" max="5" width="9" style="1"/>
-    <col min="6" max="6" width="26.8984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="32.09765625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="18.19921875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="26.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32.125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="18.25" style="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" ht="30" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:8" ht="31.5" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.4">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B6" s="7" t="s">
         <v>0</v>
       </c>
@@ -1439,12 +1437,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B7" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>7</v>
@@ -1453,7 +1451,7 @@
         <v>8</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>33</v>
+        <v>203</v>
       </c>
       <c r="G7" s="6" t="s">
         <v>8</v>
@@ -1462,12 +1460,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B8" s="5" t="s">
         <v>29</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>22</v>
@@ -1476,7 +1474,7 @@
         <v>21</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>30</v>
@@ -1485,172 +1483,172 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B9" s="23" t="s">
-        <v>203</v>
-      </c>
-      <c r="C9" s="24" t="s">
-        <v>143</v>
-      </c>
-      <c r="D9" s="25" t="s">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B9" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="D9" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="27"/>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B10" s="17" t="s">
-        <v>134</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>202</v>
-      </c>
-      <c r="D10" s="13" t="s">
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="23"/>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B10" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>201</v>
+      </c>
+      <c r="D10" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="E10" s="13" t="s">
+      <c r="E10" s="15" t="s">
         <v>8</v>
       </c>
       <c r="F10" s="6">
         <v>0</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="H10" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="H10" s="15" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B11" s="20"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B11" s="25"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
       <c r="F11" s="6">
         <v>1</v>
       </c>
       <c r="G11" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H11" s="19"/>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B12" s="20"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
+      <c r="H11" s="24"/>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B12" s="25"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
       <c r="F12" s="6">
         <v>2</v>
       </c>
       <c r="G12" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H12" s="19"/>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B13" s="20"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
+      <c r="H12" s="24"/>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B13" s="25"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
       <c r="F13" s="6">
         <v>3</v>
       </c>
       <c r="G13" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H13" s="19"/>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B14" s="20"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
+      <c r="H13" s="24"/>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B14" s="25"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
       <c r="F14" s="6">
         <v>4</v>
       </c>
       <c r="G14" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H14" s="19"/>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B15" s="20"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
+      <c r="H14" s="24"/>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B15" s="25"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
       <c r="F15" s="6">
         <v>5</v>
       </c>
       <c r="G15" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H15" s="19"/>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B16" s="20"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
+      <c r="H15" s="24"/>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B16" s="25"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="24"/>
       <c r="F16" s="6">
         <v>6</v>
       </c>
       <c r="G16" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H16" s="19"/>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B17" s="20"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
+      <c r="H16" s="24"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B17" s="25"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
       <c r="F17" s="6">
         <v>7</v>
       </c>
       <c r="G17" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H17" s="19"/>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B18" s="20"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
+      <c r="H17" s="24"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B18" s="25"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
       <c r="F18" s="6">
         <v>8</v>
       </c>
       <c r="G18" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H18" s="19"/>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B19" s="18"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
+      <c r="H18" s="24"/>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B19" s="20"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
       <c r="F19" s="6">
         <v>9</v>
       </c>
       <c r="G19" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H19" s="14"/>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B20" s="17" t="s">
+      <c r="H19" s="16"/>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B20" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="C20" s="15" t="s">
-        <v>144</v>
-      </c>
-      <c r="D20" s="13" t="s">
+      <c r="C20" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="D20" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="E20" s="13" t="s">
+      <c r="E20" s="15" t="s">
         <v>21</v>
       </c>
       <c r="F20" s="6">
@@ -1661,11 +1659,11 @@
       </c>
       <c r="H20" s="6"/>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B21" s="18"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B21" s="20"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
       <c r="F21" s="6" t="s">
         <v>23</v>
       </c>
@@ -1676,41 +1674,41 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B22" s="17" t="s">
-        <v>136</v>
-      </c>
-      <c r="C22" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="D22" s="13" t="s">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B22" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="C22" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="D22" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="E22" s="13" t="s">
+      <c r="E22" s="15" t="s">
         <v>21</v>
       </c>
       <c r="F22" s="6">
         <v>0</v>
       </c>
       <c r="G22" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="H22" s="15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B23" s="20"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="6">
+        <v>1</v>
+      </c>
+      <c r="G23" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="H22" s="13" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B23" s="18"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="6">
-        <v>1</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="H23" s="14"/>
+      <c r="H23" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="15">
@@ -1741,25 +1739,25 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
+      <selection pane="bottomLeft" activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.69921875" style="10" customWidth="1"/>
+    <col min="2" max="2" width="13.75" style="10" customWidth="1"/>
     <col min="3" max="3" width="36.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.09765625" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.3984375" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.125" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.375" style="10" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="34" style="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="37.8984375" style="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="38.69921875" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="37.875" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="38.75" style="10" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B1" s="11" t="s">
         <v>29</v>
@@ -1771,29 +1769,29 @@
         <v>11</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F1" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="G1" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="G1" s="11" t="s">
-        <v>150</v>
-      </c>
       <c r="H1" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="I1" s="11" t="s">
         <v>152</v>
-      </c>
-      <c r="I1" s="11" t="s">
-        <v>153</v>
       </c>
       <c r="J1" s="9"/>
       <c r="K1" s="9"/>
       <c r="L1" s="9"/>
       <c r="M1" s="9"/>
       <c r="N1" s="9"/>
-      <c r="O1" s="22"/>
-      <c r="P1" s="22"/>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="O1" s="27"/>
+      <c r="P1" s="27"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="6">
         <v>24000</v>
       </c>
@@ -1801,7 +1799,7 @@
         <v>3704</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D2" s="6">
         <v>1</v>
@@ -1810,19 +1808,19 @@
         <v>1</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H2" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="I2" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="I2" s="6" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.4">
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>24001</v>
       </c>
@@ -1830,7 +1828,7 @@
         <v>3705</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D3" s="6">
         <v>1</v>
@@ -1839,19 +1837,19 @@
         <v>1</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H3" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="I3" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="I3" s="6" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.4">
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <v>24002</v>
       </c>
@@ -1859,7 +1857,7 @@
         <v>3706</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D4" s="6">
         <v>1</v>
@@ -1868,19 +1866,19 @@
         <v>1</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H4" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="I4" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="I4" s="6" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.4">
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>24003</v>
       </c>
@@ -1888,7 +1886,7 @@
         <v>3707</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D5" s="6">
         <v>1</v>
@@ -1897,19 +1895,19 @@
         <v>1</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H5" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="I5" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="I5" s="6" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.4">
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>24004</v>
       </c>
@@ -1917,7 +1915,7 @@
         <v>3708</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D6" s="6">
         <v>1</v>
@@ -1926,19 +1924,19 @@
         <v>1</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H6" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="I6" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="I6" s="6" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.4">
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>24005</v>
       </c>
@@ -1946,7 +1944,7 @@
         <v>3709</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D7" s="6">
         <v>1</v>
@@ -1955,19 +1953,19 @@
         <v>1</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H7" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="I7" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="I7" s="6" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.4">
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>24006</v>
       </c>
@@ -1975,7 +1973,7 @@
         <v>3710</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D8" s="6">
         <v>1</v>
@@ -1984,19 +1982,19 @@
         <v>1</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H8" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="I8" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="I8" s="6" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.4">
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>24007</v>
       </c>
@@ -2004,7 +2002,7 @@
         <v>3711</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D9" s="6">
         <v>1</v>
@@ -2013,19 +2011,19 @@
         <v>1</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H9" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="I9" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="I9" s="6" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.4">
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
         <v>24008</v>
       </c>
@@ -2033,7 +2031,7 @@
         <v>3712</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D10" s="6">
         <v>1</v>
@@ -2042,19 +2040,19 @@
         <v>1</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G10" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="H10" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="H10" s="6" t="s">
+      <c r="I10" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="I10" s="6" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.4">
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>24009</v>
       </c>
@@ -2062,7 +2060,7 @@
         <v>3713</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D11" s="6">
         <v>2</v>
@@ -2071,19 +2069,19 @@
         <v>1</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G11" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="H11" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="H11" s="6" t="s">
+      <c r="I11" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="I11" s="6" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.4">
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" s="6">
         <v>24010</v>
       </c>
@@ -2091,7 +2089,7 @@
         <v>3714</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D12" s="6">
         <v>2</v>
@@ -2100,19 +2098,19 @@
         <v>1</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G12" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="H12" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="H12" s="6" t="s">
+      <c r="I12" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="I12" s="6" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.4">
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" s="6">
         <v>24011</v>
       </c>
@@ -2120,7 +2118,7 @@
         <v>3715</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D13" s="6">
         <v>2</v>
@@ -2129,19 +2127,19 @@
         <v>1</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G13" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="H13" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="H13" s="6" t="s">
+      <c r="I13" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="I13" s="6" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.4">
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="6">
         <v>24012</v>
       </c>
@@ -2149,7 +2147,7 @@
         <v>3716</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D14" s="6">
         <v>2</v>
@@ -2158,19 +2156,19 @@
         <v>1</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G14" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="H14" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="H14" s="6" t="s">
+      <c r="I14" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="I14" s="6" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.4">
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" s="6">
         <v>24013</v>
       </c>
@@ -2178,7 +2176,7 @@
         <v>3717</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D15" s="6">
         <v>2</v>
@@ -2187,19 +2185,19 @@
         <v>1</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G15" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="H15" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="H15" s="6" t="s">
+      <c r="I15" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="I15" s="6" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.4">
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" s="6">
         <v>24014</v>
       </c>
@@ -2207,7 +2205,7 @@
         <v>3718</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D16" s="6">
         <v>2</v>
@@ -2216,19 +2214,19 @@
         <v>1</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G16" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="H16" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="H16" s="6" t="s">
+      <c r="I16" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="I16" s="6" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="6">
         <v>24015</v>
       </c>
@@ -2236,7 +2234,7 @@
         <v>3719</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D17" s="6">
         <v>2</v>
@@ -2245,19 +2243,19 @@
         <v>1</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G17" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="H17" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="H17" s="6" t="s">
+      <c r="I17" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="I17" s="6" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="6">
         <v>24016</v>
       </c>
@@ -2265,7 +2263,7 @@
         <v>3720</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D18" s="6">
         <v>2</v>
@@ -2274,19 +2272,19 @@
         <v>1</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G18" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="H18" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="H18" s="6" t="s">
+      <c r="I18" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="I18" s="6" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="6">
         <v>24017</v>
       </c>
@@ -2294,7 +2292,7 @@
         <v>3721</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D19" s="6">
         <v>2</v>
@@ -2303,19 +2301,19 @@
         <v>1</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G19" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="H19" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="H19" s="6" t="s">
+      <c r="I19" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="I19" s="6" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="6">
         <v>24018</v>
       </c>
@@ -2323,7 +2321,7 @@
         <v>3722</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D20" s="6">
         <v>2</v>
@@ -2332,19 +2330,19 @@
         <v>1</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G20" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="H20" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="H20" s="6" t="s">
+      <c r="I20" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="I20" s="6" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="6">
         <v>24019</v>
       </c>
@@ -2352,7 +2350,7 @@
         <v>3723</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D21" s="6">
         <v>2</v>
@@ -2361,19 +2359,19 @@
         <v>1</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G21" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="H21" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="H21" s="6" t="s">
+      <c r="I21" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="I21" s="6" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="6">
         <v>24020</v>
       </c>
@@ -2381,7 +2379,7 @@
         <v>3724</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D22" s="6">
         <v>2</v>
@@ -2390,19 +2388,19 @@
         <v>1</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G22" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="H22" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="H22" s="6" t="s">
+      <c r="I22" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="I22" s="6" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="6">
         <v>24021</v>
       </c>
@@ -2410,7 +2408,7 @@
         <v>3725</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D23" s="6">
         <v>2</v>
@@ -2419,19 +2417,19 @@
         <v>1</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G23" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="H23" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="H23" s="6" t="s">
+      <c r="I23" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="I23" s="6" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="6">
         <v>24022</v>
       </c>
@@ -2439,7 +2437,7 @@
         <v>3726</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D24" s="6">
         <v>2</v>
@@ -2448,19 +2446,19 @@
         <v>1</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G24" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="H24" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="H24" s="6" t="s">
+      <c r="I24" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="I24" s="6" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="6">
         <v>24023</v>
       </c>
@@ -2468,7 +2466,7 @@
         <v>3727</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D25" s="6">
         <v>2</v>
@@ -2477,19 +2475,19 @@
         <v>1</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G25" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="H25" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="H25" s="6" t="s">
+      <c r="I25" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="I25" s="6" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="6">
         <v>24024</v>
       </c>
@@ -2497,7 +2495,7 @@
         <v>3728</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D26" s="6">
         <v>2</v>
@@ -2506,19 +2504,19 @@
         <v>1</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G26" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="H26" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="H26" s="6" t="s">
+      <c r="I26" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="I26" s="6" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="6">
         <v>24025</v>
       </c>
@@ -2526,7 +2524,7 @@
         <v>3729</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D27" s="6">
         <v>2</v>
@@ -2535,19 +2533,19 @@
         <v>1</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G27" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="H27" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="H27" s="6" t="s">
+      <c r="I27" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="I27" s="6" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="6">
         <v>24026</v>
       </c>
@@ -2555,7 +2553,7 @@
         <v>3730</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D28" s="6">
         <v>2</v>
@@ -2564,19 +2562,19 @@
         <v>1</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G28" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="H28" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="H28" s="6" t="s">
+      <c r="I28" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="I28" s="6" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="6">
         <v>24027</v>
       </c>
@@ -2584,7 +2582,7 @@
         <v>3731</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D29" s="6">
         <v>2</v>
@@ -2593,19 +2591,19 @@
         <v>1</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G29" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="H29" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="H29" s="6" t="s">
+      <c r="I29" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="I29" s="6" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="6">
         <v>24028</v>
       </c>
@@ -2613,7 +2611,7 @@
         <v>3732</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D30" s="6">
         <v>2</v>
@@ -2622,19 +2620,19 @@
         <v>1</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G30" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="H30" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="H30" s="6" t="s">
+      <c r="I30" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="I30" s="6" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="6">
         <v>24029</v>
       </c>
@@ -2642,7 +2640,7 @@
         <v>3733</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D31" s="6">
         <v>2</v>
@@ -2651,19 +2649,19 @@
         <v>1</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G31" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="H31" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="H31" s="6" t="s">
+      <c r="I31" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="I31" s="6" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="6">
         <v>24030</v>
       </c>
@@ -2671,7 +2669,7 @@
         <v>3734</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D32" s="6">
         <v>3</v>
@@ -2680,19 +2678,19 @@
         <v>1</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G32" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="H32" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="H32" s="6" t="s">
+      <c r="I32" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="I32" s="6" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="6">
         <v>24031</v>
       </c>
@@ -2700,7 +2698,7 @@
         <v>3735</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D33" s="6">
         <v>3</v>
@@ -2709,19 +2707,19 @@
         <v>1</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G33" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="H33" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="H33" s="6" t="s">
+      <c r="I33" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="I33" s="6" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="6">
         <v>24032</v>
       </c>
@@ -2729,7 +2727,7 @@
         <v>3736</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D34" s="6">
         <v>3</v>
@@ -2738,19 +2736,19 @@
         <v>1</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G34" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="H34" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="H34" s="6" t="s">
+      <c r="I34" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="I34" s="6" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="6">
         <v>24033</v>
       </c>
@@ -2758,7 +2756,7 @@
         <v>3737</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D35" s="6">
         <v>3</v>
@@ -2767,19 +2765,19 @@
         <v>1</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G35" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="H35" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="H35" s="6" t="s">
+      <c r="I35" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="I35" s="6" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="6">
         <v>24034</v>
       </c>
@@ -2787,7 +2785,7 @@
         <v>3738</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D36" s="6">
         <v>3</v>
@@ -2796,19 +2794,19 @@
         <v>1</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G36" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="H36" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="H36" s="6" t="s">
+      <c r="I36" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="I36" s="6" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="6">
         <v>24035</v>
       </c>
@@ -2816,7 +2814,7 @@
         <v>3739</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D37" s="6">
         <v>3</v>
@@ -2825,19 +2823,19 @@
         <v>1</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G37" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="H37" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="H37" s="6" t="s">
+      <c r="I37" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="I37" s="6" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="6">
         <v>24036</v>
       </c>
@@ -2845,7 +2843,7 @@
         <v>3740</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D38" s="6">
         <v>3</v>
@@ -2854,19 +2852,19 @@
         <v>1</v>
       </c>
       <c r="F38" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G38" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="H38" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="H38" s="6" t="s">
+      <c r="I38" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="I38" s="6" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="6">
         <v>24037</v>
       </c>
@@ -2874,7 +2872,7 @@
         <v>3741</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D39" s="6">
         <v>3</v>
@@ -2883,19 +2881,19 @@
         <v>1</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G39" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="H39" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="H39" s="6" t="s">
+      <c r="I39" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="I39" s="6" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" s="6">
         <v>24038</v>
       </c>
@@ -2903,7 +2901,7 @@
         <v>3742</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D40" s="6">
         <v>3</v>
@@ -2912,19 +2910,19 @@
         <v>1</v>
       </c>
       <c r="F40" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G40" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="H40" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="H40" s="6" t="s">
+      <c r="I40" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="I40" s="6" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" s="6">
         <v>24039</v>
       </c>
@@ -2932,7 +2930,7 @@
         <v>3743</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D41" s="6">
         <v>3</v>
@@ -2941,19 +2939,19 @@
         <v>1</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G41" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="H41" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="H41" s="6" t="s">
+      <c r="I41" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="I41" s="6" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" s="6">
         <v>24040</v>
       </c>
@@ -2961,7 +2959,7 @@
         <v>3744</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D42" s="6">
         <v>3</v>
@@ -2970,19 +2968,19 @@
         <v>1</v>
       </c>
       <c r="F42" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G42" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="H42" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="H42" s="6" t="s">
+      <c r="I42" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="I42" s="6" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" s="6">
         <v>24041</v>
       </c>
@@ -2990,7 +2988,7 @@
         <v>3745</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D43" s="6">
         <v>3</v>
@@ -2999,19 +2997,19 @@
         <v>1</v>
       </c>
       <c r="F43" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G43" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="H43" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="H43" s="6" t="s">
+      <c r="I43" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="I43" s="6" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" s="6">
         <v>24042</v>
       </c>
@@ -3019,7 +3017,7 @@
         <v>3746</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D44" s="6">
         <v>3</v>
@@ -3028,19 +3026,19 @@
         <v>1</v>
       </c>
       <c r="F44" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G44" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="H44" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="H44" s="6" t="s">
+      <c r="I44" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="I44" s="6" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" s="6">
         <v>24043</v>
       </c>
@@ -3048,7 +3046,7 @@
         <v>3747</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D45" s="6">
         <v>3</v>
@@ -3057,19 +3055,19 @@
         <v>1</v>
       </c>
       <c r="F45" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G45" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="H45" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="H45" s="6" t="s">
+      <c r="I45" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="I45" s="6" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" s="6">
         <v>24044</v>
       </c>
@@ -3077,7 +3075,7 @@
         <v>3748</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D46" s="6">
         <v>3</v>
@@ -3086,19 +3084,19 @@
         <v>1</v>
       </c>
       <c r="F46" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G46" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="H46" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="H46" s="6" t="s">
+      <c r="I46" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="I46" s="6" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" s="6">
         <v>24045</v>
       </c>
@@ -3106,7 +3104,7 @@
         <v>3749</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D47" s="6">
         <v>3</v>
@@ -3115,19 +3113,19 @@
         <v>1</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G47" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="H47" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="H47" s="6" t="s">
+      <c r="I47" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="I47" s="6" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" s="6">
         <v>24046</v>
       </c>
@@ -3135,7 +3133,7 @@
         <v>3750</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D48" s="6">
         <v>3</v>
@@ -3144,19 +3142,19 @@
         <v>1</v>
       </c>
       <c r="F48" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G48" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="H48" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="H48" s="6" t="s">
+      <c r="I48" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="I48" s="6" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" s="6">
         <v>24047</v>
       </c>
@@ -3164,7 +3162,7 @@
         <v>3751</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D49" s="6">
         <v>3</v>
@@ -3173,19 +3171,19 @@
         <v>1</v>
       </c>
       <c r="F49" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G49" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="H49" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="H49" s="6" t="s">
+      <c r="I49" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="I49" s="6" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" s="6">
         <v>24048</v>
       </c>
@@ -3193,7 +3191,7 @@
         <v>3752</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D50" s="6">
         <v>4</v>
@@ -3202,19 +3200,19 @@
         <v>1</v>
       </c>
       <c r="F50" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G50" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="H50" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="H50" s="6" t="s">
+      <c r="I50" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="I50" s="6" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" s="6">
         <v>24049</v>
       </c>
@@ -3222,7 +3220,7 @@
         <v>3753</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D51" s="6">
         <v>4</v>
@@ -3231,19 +3229,19 @@
         <v>1</v>
       </c>
       <c r="F51" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G51" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="H51" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="H51" s="6" t="s">
+      <c r="I51" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="I51" s="6" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" s="6">
         <v>24050</v>
       </c>
@@ -3251,7 +3249,7 @@
         <v>3754</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D52" s="6">
         <v>4</v>
@@ -3260,19 +3258,19 @@
         <v>1</v>
       </c>
       <c r="F52" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G52" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="H52" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="H52" s="6" t="s">
+      <c r="I52" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="I52" s="6" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" s="6">
         <v>24051</v>
       </c>
@@ -3280,7 +3278,7 @@
         <v>3755</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D53" s="6">
         <v>4</v>
@@ -3289,19 +3287,19 @@
         <v>1</v>
       </c>
       <c r="F53" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G53" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="H53" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="H53" s="6" t="s">
+      <c r="I53" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="I53" s="6" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" s="6">
         <v>24052</v>
       </c>
@@ -3309,7 +3307,7 @@
         <v>3756</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D54" s="6">
         <v>5</v>
@@ -3318,19 +3316,19 @@
         <v>1</v>
       </c>
       <c r="F54" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G54" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="H54" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="H54" s="6" t="s">
+      <c r="I54" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="I54" s="6" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" s="6">
         <v>24053</v>
       </c>
@@ -3338,7 +3336,7 @@
         <v>3757</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D55" s="6">
         <v>6</v>
@@ -3347,19 +3345,19 @@
         <v>1</v>
       </c>
       <c r="F55" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G55" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="H55" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="H55" s="6" t="s">
+      <c r="I55" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="I55" s="6" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" s="6">
         <v>24054</v>
       </c>
@@ -3367,7 +3365,7 @@
         <v>3758</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D56" s="6">
         <v>6</v>
@@ -3376,19 +3374,19 @@
         <v>1</v>
       </c>
       <c r="F56" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G56" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="H56" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="H56" s="6" t="s">
+      <c r="I56" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="I56" s="6" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" s="6">
         <v>24055</v>
       </c>
@@ -3396,7 +3394,7 @@
         <v>3759</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D57" s="6">
         <v>6</v>
@@ -3405,19 +3403,19 @@
         <v>1</v>
       </c>
       <c r="F57" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G57" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="H57" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="H57" s="6" t="s">
+      <c r="I57" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="I57" s="6" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" s="6">
         <v>24056</v>
       </c>
@@ -3425,7 +3423,7 @@
         <v>3760</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D58" s="6">
         <v>6</v>
@@ -3434,19 +3432,19 @@
         <v>1</v>
       </c>
       <c r="F58" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G58" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="H58" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="H58" s="6" t="s">
+      <c r="I58" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="I58" s="6" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" s="6">
         <v>24057</v>
       </c>
@@ -3454,7 +3452,7 @@
         <v>3761</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D59" s="6">
         <v>6</v>
@@ -3463,19 +3461,19 @@
         <v>1</v>
       </c>
       <c r="F59" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G59" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="H59" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="H59" s="6" t="s">
+      <c r="I59" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="I59" s="6" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" s="6">
         <v>24058</v>
       </c>
@@ -3483,7 +3481,7 @@
         <v>3762</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D60" s="6">
         <v>6</v>
@@ -3492,19 +3490,19 @@
         <v>1</v>
       </c>
       <c r="F60" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G60" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="H60" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="H60" s="6" t="s">
+      <c r="I60" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="I60" s="6" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61" s="6">
         <v>24059</v>
       </c>
@@ -3512,7 +3510,7 @@
         <v>3763</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D61" s="6">
         <v>7</v>
@@ -3521,19 +3519,19 @@
         <v>1</v>
       </c>
       <c r="F61" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G61" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="H61" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="H61" s="6" t="s">
+      <c r="I61" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="I61" s="6" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62" s="6">
         <v>24060</v>
       </c>
@@ -3541,7 +3539,7 @@
         <v>3764</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D62" s="6">
         <v>7</v>
@@ -3550,19 +3548,19 @@
         <v>1</v>
       </c>
       <c r="F62" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G62" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="H62" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="H62" s="6" t="s">
+      <c r="I62" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="I62" s="6" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63" s="6">
         <v>24061</v>
       </c>
@@ -3570,7 +3568,7 @@
         <v>3765</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D63" s="6">
         <v>7</v>
@@ -3579,19 +3577,19 @@
         <v>1</v>
       </c>
       <c r="F63" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G63" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="H63" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="H63" s="6" t="s">
+      <c r="I63" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="I63" s="6" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64" s="6">
         <v>24062</v>
       </c>
@@ -3599,7 +3597,7 @@
         <v>3766</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D64" s="6">
         <v>7</v>
@@ -3608,19 +3606,19 @@
         <v>1</v>
       </c>
       <c r="F64" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G64" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="H64" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="H64" s="6" t="s">
+      <c r="I64" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="I64" s="6" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65" s="6">
         <v>24063</v>
       </c>
@@ -3628,7 +3626,7 @@
         <v>3767</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D65" s="6">
         <v>7</v>
@@ -3637,19 +3635,19 @@
         <v>1</v>
       </c>
       <c r="F65" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G65" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="H65" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="H65" s="6" t="s">
+      <c r="I65" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="I65" s="6" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66" s="6">
         <v>24064</v>
       </c>
@@ -3657,7 +3655,7 @@
         <v>3768</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D66" s="6">
         <v>7</v>
@@ -3666,19 +3664,19 @@
         <v>1</v>
       </c>
       <c r="F66" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G66" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="H66" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="H66" s="6" t="s">
+      <c r="I66" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="I66" s="6" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67" s="6">
         <v>24065</v>
       </c>
@@ -3686,7 +3684,7 @@
         <v>3769</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D67" s="6">
         <v>7</v>
@@ -3695,19 +3693,19 @@
         <v>1</v>
       </c>
       <c r="F67" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G67" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="H67" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="H67" s="6" t="s">
+      <c r="I67" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="I67" s="6" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68" s="6">
         <v>24066</v>
       </c>
@@ -3715,7 +3713,7 @@
         <v>3770</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D68" s="6">
         <v>7</v>
@@ -3724,19 +3722,19 @@
         <v>1</v>
       </c>
       <c r="F68" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G68" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="H68" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="H68" s="6" t="s">
+      <c r="I68" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="I68" s="6" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69" s="6">
         <v>24067</v>
       </c>
@@ -3744,7 +3742,7 @@
         <v>3771</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D69" s="6">
         <v>7</v>
@@ -3753,19 +3751,19 @@
         <v>1</v>
       </c>
       <c r="F69" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G69" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="H69" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="H69" s="6" t="s">
+      <c r="I69" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="I69" s="6" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70" s="6">
         <v>24068</v>
       </c>
@@ -3773,7 +3771,7 @@
         <v>3772</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D70" s="6">
         <v>7</v>
@@ -3782,19 +3780,19 @@
         <v>1</v>
       </c>
       <c r="F70" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G70" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="H70" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="H70" s="6" t="s">
+      <c r="I70" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="I70" s="6" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A71" s="6">
         <v>24069</v>
       </c>
@@ -3802,7 +3800,7 @@
         <v>3773</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D71" s="6">
         <v>7</v>
@@ -3811,19 +3809,19 @@
         <v>1</v>
       </c>
       <c r="F71" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G71" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="H71" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="H71" s="6" t="s">
+      <c r="I71" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="I71" s="6" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72" s="6">
         <v>24070</v>
       </c>
@@ -3831,7 +3829,7 @@
         <v>3774</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D72" s="6">
         <v>7</v>
@@ -3840,19 +3838,19 @@
         <v>1</v>
       </c>
       <c r="F72" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G72" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="H72" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="H72" s="6" t="s">
+      <c r="I72" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="I72" s="6" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73" s="6">
         <v>24071</v>
       </c>
@@ -3860,7 +3858,7 @@
         <v>3775</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D73" s="6">
         <v>7</v>
@@ -3869,19 +3867,19 @@
         <v>1</v>
       </c>
       <c r="F73" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G73" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="H73" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="H73" s="6" t="s">
+      <c r="I73" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="I73" s="6" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A74" s="6">
         <v>24072</v>
       </c>
@@ -3889,7 +3887,7 @@
         <v>3776</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D74" s="6">
         <v>7</v>
@@ -3898,19 +3896,19 @@
         <v>1</v>
       </c>
       <c r="F74" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G74" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="H74" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="H74" s="6" t="s">
+      <c r="I74" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="I74" s="6" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75" s="6">
         <v>24073</v>
       </c>
@@ -3918,7 +3916,7 @@
         <v>3777</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D75" s="6">
         <v>7</v>
@@ -3927,19 +3925,19 @@
         <v>1</v>
       </c>
       <c r="F75" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G75" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="H75" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="H75" s="6" t="s">
+      <c r="I75" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="I75" s="6" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A76" s="6">
         <v>24074</v>
       </c>
@@ -3947,7 +3945,7 @@
         <v>3778</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D76" s="6">
         <v>7</v>
@@ -3956,19 +3954,19 @@
         <v>1</v>
       </c>
       <c r="F76" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G76" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="H76" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="H76" s="6" t="s">
+      <c r="I76" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="I76" s="6" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A77" s="6">
         <v>24075</v>
       </c>
@@ -3976,7 +3974,7 @@
         <v>3779</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D77" s="6">
         <v>7</v>
@@ -3985,19 +3983,19 @@
         <v>1</v>
       </c>
       <c r="F77" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G77" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="H77" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="H77" s="6" t="s">
+      <c r="I77" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="I77" s="6" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A78" s="6">
         <v>24076</v>
       </c>
@@ -4005,7 +4003,7 @@
         <v>3780</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D78" s="6">
         <v>7</v>
@@ -4014,19 +4012,19 @@
         <v>1</v>
       </c>
       <c r="F78" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G78" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="H78" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="H78" s="6" t="s">
+      <c r="I78" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="I78" s="6" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A79" s="6">
         <v>24077</v>
       </c>
@@ -4034,7 +4032,7 @@
         <v>3781</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D79" s="6">
         <v>7</v>
@@ -4043,19 +4041,19 @@
         <v>1</v>
       </c>
       <c r="F79" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G79" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="H79" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="H79" s="6" t="s">
+      <c r="I79" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="I79" s="6" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A80" s="6">
         <v>24078</v>
       </c>
@@ -4063,7 +4061,7 @@
         <v>3782</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D80" s="6">
         <v>7</v>
@@ -4072,19 +4070,19 @@
         <v>1</v>
       </c>
       <c r="F80" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G80" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="H80" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="H80" s="6" t="s">
+      <c r="I80" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="I80" s="6" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A81" s="6">
         <v>24079</v>
       </c>
@@ -4092,7 +4090,7 @@
         <v>3783</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D81" s="6">
         <v>7</v>
@@ -4101,19 +4099,19 @@
         <v>1</v>
       </c>
       <c r="F81" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G81" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="H81" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="H81" s="6" t="s">
+      <c r="I81" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="I81" s="6" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A82" s="6">
         <v>24080</v>
       </c>
@@ -4121,7 +4119,7 @@
         <v>3784</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D82" s="6">
         <v>7</v>
@@ -4130,19 +4128,19 @@
         <v>1</v>
       </c>
       <c r="F82" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G82" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="H82" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="H82" s="6" t="s">
+      <c r="I82" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="I82" s="6" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A83" s="6">
         <v>24081</v>
       </c>
@@ -4150,7 +4148,7 @@
         <v>3785</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D83" s="6">
         <v>8</v>
@@ -4159,19 +4157,19 @@
         <v>1</v>
       </c>
       <c r="F83" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G83" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="H83" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="H83" s="6" t="s">
+      <c r="I83" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="I83" s="6" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A84" s="6">
         <v>24082</v>
       </c>
@@ -4179,7 +4177,7 @@
         <v>3786</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D84" s="6">
         <v>8</v>
@@ -4188,19 +4186,19 @@
         <v>1</v>
       </c>
       <c r="F84" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G84" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="H84" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="H84" s="6" t="s">
+      <c r="I84" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="I84" s="6" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85" s="6">
         <v>24083</v>
       </c>
@@ -4208,7 +4206,7 @@
         <v>3787</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D85" s="6">
         <v>8</v>
@@ -4217,19 +4215,19 @@
         <v>1</v>
       </c>
       <c r="F85" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G85" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="H85" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="H85" s="6" t="s">
+      <c r="I85" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="I85" s="6" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A86" s="6">
         <v>24084</v>
       </c>
@@ -4237,7 +4235,7 @@
         <v>3788</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D86" s="6">
         <v>8</v>
@@ -4246,19 +4244,19 @@
         <v>1</v>
       </c>
       <c r="F86" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G86" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="H86" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="H86" s="6" t="s">
+      <c r="I86" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="I86" s="6" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A87" s="6">
         <v>24085</v>
       </c>
@@ -4266,7 +4264,7 @@
         <v>3789</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D87" s="6">
         <v>9</v>
@@ -4275,19 +4273,19 @@
         <v>0</v>
       </c>
       <c r="F87" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G87" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="H87" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="H87" s="6" t="s">
+      <c r="I87" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="I87" s="6" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A88" s="6">
         <v>24086</v>
       </c>
@@ -4295,7 +4293,7 @@
         <v>3790</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D88" s="6">
         <v>9</v>
@@ -4304,19 +4302,19 @@
         <v>0</v>
       </c>
       <c r="F88" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G88" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="H88" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="H88" s="6" t="s">
+      <c r="I88" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="I88" s="6" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A89" s="6">
         <v>24087</v>
       </c>
@@ -4324,7 +4322,7 @@
         <v>3791</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D89" s="6">
         <v>9</v>
@@ -4333,19 +4331,19 @@
         <v>0</v>
       </c>
       <c r="F89" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G89" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="H89" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="H89" s="6" t="s">
+      <c r="I89" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="I89" s="6" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A90" s="6">
         <v>24088</v>
       </c>
@@ -4353,7 +4351,7 @@
         <v>3792</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D90" s="6">
         <v>9</v>
@@ -4362,19 +4360,19 @@
         <v>0</v>
       </c>
       <c r="F90" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G90" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="H90" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="H90" s="6" t="s">
+      <c r="I90" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="I90" s="6" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A91" s="6">
         <v>24089</v>
       </c>
@@ -4382,7 +4380,7 @@
         <v>3793</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D91" s="6">
         <v>9</v>
@@ -4391,19 +4389,19 @@
         <v>0</v>
       </c>
       <c r="F91" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G91" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="H91" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="H91" s="6" t="s">
+      <c r="I91" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="I91" s="6" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A92" s="6">
         <v>24090</v>
       </c>
@@ -4411,7 +4409,7 @@
         <v>3794</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D92" s="6">
         <v>9</v>
@@ -4420,19 +4418,19 @@
         <v>0</v>
       </c>
       <c r="F92" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G92" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="H92" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="H92" s="6" t="s">
+      <c r="I92" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="I92" s="6" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A93" s="6">
         <v>24091</v>
       </c>
@@ -4440,7 +4438,7 @@
         <v>3795</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D93" s="6">
         <v>9</v>
@@ -4449,19 +4447,19 @@
         <v>0</v>
       </c>
       <c r="F93" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G93" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="H93" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="H93" s="6" t="s">
+      <c r="I93" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="I93" s="6" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A94" s="6">
         <v>24092</v>
       </c>
@@ -4469,7 +4467,7 @@
         <v>3796</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D94" s="6">
         <v>9</v>
@@ -4478,19 +4476,19 @@
         <v>0</v>
       </c>
       <c r="F94" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G94" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="H94" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="H94" s="6" t="s">
+      <c r="I94" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="I94" s="6" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A95" s="6">
         <v>24093</v>
       </c>
@@ -4498,7 +4496,7 @@
         <v>3797</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D95" s="6">
         <v>9</v>
@@ -4507,19 +4505,19 @@
         <v>0</v>
       </c>
       <c r="F95" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G95" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="H95" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="H95" s="6" t="s">
+      <c r="I95" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="I95" s="6" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A96" s="6">
         <v>24094</v>
       </c>
@@ -4527,7 +4525,7 @@
         <v>3798</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D96" s="6">
         <v>9</v>
@@ -4536,19 +4534,19 @@
         <v>0</v>
       </c>
       <c r="F96" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G96" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="H96" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="H96" s="6" t="s">
+      <c r="I96" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="I96" s="6" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A97" s="6">
         <v>24095</v>
       </c>
@@ -4556,7 +4554,7 @@
         <v>3799</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D97" s="6">
         <v>9</v>
@@ -4565,19 +4563,19 @@
         <v>0</v>
       </c>
       <c r="F97" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G97" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="H97" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="H97" s="6" t="s">
+      <c r="I97" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="I97" s="6" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A98" s="6">
         <v>24096</v>
       </c>
@@ -4585,7 +4583,7 @@
         <v>3800</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D98" s="6">
         <v>9</v>
@@ -4594,19 +4592,19 @@
         <v>0</v>
       </c>
       <c r="F98" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G98" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="H98" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="H98" s="6" t="s">
+      <c r="I98" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="I98" s="6" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A99" s="6">
         <v>24097</v>
       </c>
@@ -4614,7 +4612,7 @@
         <v>3801</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D99" s="6">
         <v>9</v>
@@ -4623,19 +4621,19 @@
         <v>0</v>
       </c>
       <c r="F99" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G99" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="H99" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="H99" s="6" t="s">
+      <c r="I99" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="I99" s="6" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A100" s="6">
         <v>24098</v>
       </c>
@@ -4643,7 +4641,7 @@
         <v>3802</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D100" s="6">
         <v>9</v>
@@ -4652,19 +4650,19 @@
         <v>0</v>
       </c>
       <c r="F100" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G100" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="H100" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="H100" s="6" t="s">
+      <c r="I100" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="I100" s="6" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A101" s="6">
         <v>24099</v>
       </c>
@@ -4672,7 +4670,7 @@
         <v>3803</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D101" s="6">
         <v>9</v>
@@ -4681,16 +4679,16 @@
         <v>0</v>
       </c>
       <c r="F101" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G101" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="H101" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="H101" s="6" t="s">
+      <c r="I101" s="6" t="s">
         <v>199</v>
-      </c>
-      <c r="I101" s="6" t="s">
-        <v>200</v>
       </c>
     </row>
   </sheetData>

--- a/로스트아크 - 비브린 큐브 기획서/vivrincube_contant_table.xlsx
+++ b/로스트아크 - 비브린 큐브 기획서/vivrincube_contant_table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\개인 자료\포트폴리오\portfolio\로스트아크 - 비브린 큐브 기획서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C354149-FBCF-4C89-BF7E-23410E72BBE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCE01A02-5BA5-4EDD-B39D-8FF2FE52D5E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="540" windowWidth="29040" windowHeight="15720" xr2:uid="{6832B32A-0745-41EA-9852-9906C71E324C}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="203">
   <si>
     <t>column</t>
   </si>
@@ -80,10 +80,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>카오스 던전</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>가디언 토벌</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -164,30 +160,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>베른 북부 - 공명</t>
-  </si>
-  <si>
-    <t>로헨델 - 악몽</t>
-  </si>
-  <si>
-    <t>욘 - 대지</t>
-  </si>
-  <si>
-    <t>페이튼 - 그림자</t>
-  </si>
-  <si>
-    <t>파푸니카 - 태양</t>
-  </si>
-  <si>
-    <t>베른 남부 - 절망</t>
-  </si>
-  <si>
-    <t>엘가시아 - 천공</t>
-  </si>
-  <si>
-    <t>볼다이크 - 계몽</t>
-  </si>
-  <si>
     <t>어둠의 레기오로스</t>
   </si>
   <si>
@@ -530,10 +502,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>vivrincube_contentmian_chaosdungeon</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>roadingscreen_contentlist01_path</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -542,14 +510,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>vivrincube_contentlist01_chaosdungeon</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>vivrincube_contentlist02_chaosdungeon</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>vivrincube_contentmian_valtan</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -743,6 +703,50 @@
   </si>
   <si>
     <t>24000 ~ 24999</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>증명의 전장</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>쿠르잔 전선</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>쿠르잔 전선</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>증명의 전장 섬멸전</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>증명의 전장 대장전</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>vivrincube_contentmian_kurzanfront</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>vivrincube_contentlist01_kurzanfront</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>vivrincube_contentlist02_kurzanfront</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>vivrincube_contentmian_prooffield</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>vivrincube_contentlist01_prooffield</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>vivrincube_contentlist02_prooffield</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1003,11 +1007,11 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1015,11 +1019,11 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1382,9 +1386,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDA345ED-973C-497C-8904-E3AD2A2F3345}">
-  <dimension ref="B2:H23"/>
+  <dimension ref="B2:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10:C20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1401,7 +1407,7 @@
   <sheetData>
     <row r="2" spans="2:8" ht="31.5" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.3">
@@ -1439,10 +1445,10 @@
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B7" s="5" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>7</v>
@@ -1451,7 +1457,7 @@
         <v>8</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="G7" s="6" t="s">
         <v>8</v>
@@ -1462,36 +1468,36 @@
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B8" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="G8" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>30</v>
-      </c>
       <c r="H8" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B9" s="13" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="D9" s="21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E9" s="22"/>
       <c r="F9" s="22"/>
@@ -1499,25 +1505,25 @@
       <c r="H9" s="23"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B10" s="19" t="s">
-        <v>133</v>
+      <c r="B10" s="15" t="s">
+        <v>124</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>201</v>
-      </c>
-      <c r="D10" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="D10" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="E10" s="15" t="s">
+      <c r="E10" s="19" t="s">
         <v>8</v>
       </c>
       <c r="F10" s="6">
         <v>0</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="H10" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="H10" s="19" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1530,7 +1536,7 @@
         <v>1</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>12</v>
+        <v>193</v>
       </c>
       <c r="H11" s="24"/>
     </row>
@@ -1543,7 +1549,7 @@
         <v>2</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H12" s="24"/>
     </row>
@@ -1556,7 +1562,7 @@
         <v>3</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H13" s="24"/>
     </row>
@@ -1569,7 +1575,7 @@
         <v>4</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H14" s="24"/>
     </row>
@@ -1582,7 +1588,7 @@
         <v>5</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H15" s="24"/>
     </row>
@@ -1595,7 +1601,7 @@
         <v>6</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H16" s="24"/>
     </row>
@@ -1608,7 +1614,7 @@
         <v>7</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H17" s="24"/>
     </row>
@@ -1621,112 +1627,125 @@
         <v>8</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H18" s="24"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B19" s="20"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
+      <c r="B19" s="25"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
       <c r="F19" s="6">
         <v>9</v>
       </c>
       <c r="G19" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H19" s="24"/>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B20" s="16"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="6">
+        <v>10</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="H20" s="20"/>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B21" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="D21" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="H19" s="16"/>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B20" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" s="17" t="s">
-        <v>143</v>
-      </c>
-      <c r="D20" s="15" t="s">
+      <c r="F21" s="6">
+        <v>0</v>
+      </c>
+      <c r="G21" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E20" s="15" t="s">
+      <c r="H21" s="6"/>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B22" s="16"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B23" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="C23" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="D23" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="F20" s="6">
+      <c r="E23" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="F23" s="6">
         <v>0</v>
       </c>
-      <c r="G20" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H20" s="6"/>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B21" s="20"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="H21" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B22" s="19" t="s">
-        <v>135</v>
-      </c>
-      <c r="C22" s="17" t="s">
-        <v>144</v>
-      </c>
-      <c r="D22" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="E22" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="F22" s="6">
-        <v>0</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="H22" s="15" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B23" s="20"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="6">
-        <v>1</v>
-      </c>
       <c r="G23" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="H23" s="16"/>
+        <v>129</v>
+      </c>
+      <c r="H23" s="19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B24" s="16"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="6">
+        <v>1</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="H24" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
     <mergeCell ref="D9:H9"/>
-    <mergeCell ref="H10:H19"/>
-    <mergeCell ref="D10:D19"/>
-    <mergeCell ref="E10:E19"/>
-    <mergeCell ref="B10:B19"/>
-    <mergeCell ref="C10:C19"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="H10:H20"/>
+    <mergeCell ref="D10:D20"/>
+    <mergeCell ref="E10:E20"/>
+    <mergeCell ref="B10:B20"/>
+    <mergeCell ref="C10:C20"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1735,11 +1754,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DE386FE-55B6-41F9-92F6-3484105CF4A5}">
-  <dimension ref="A1:P101"/>
+  <dimension ref="A1:P96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D24" sqref="D24"/>
+      <selection pane="bottomLeft" activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1757,31 +1776,31 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D1" s="11" t="s">
         <v>11</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="H1" s="11" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="I1" s="11" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="J1" s="9"/>
       <c r="K1" s="9"/>
@@ -1796,10 +1815,10 @@
         <v>24000</v>
       </c>
       <c r="B2" s="6">
-        <v>3704</v>
+        <v>3711</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>33</v>
+        <v>194</v>
       </c>
       <c r="D2" s="6">
         <v>1</v>
@@ -1808,16 +1827,16 @@
         <v>1</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>150</v>
+        <v>197</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>153</v>
+        <v>198</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>154</v>
+        <v>199</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
@@ -1825,10 +1844,10 @@
         <v>24001</v>
       </c>
       <c r="B3" s="6">
-        <v>3705</v>
+        <v>3712</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D3" s="6">
         <v>1</v>
@@ -1837,16 +1856,16 @@
         <v>1</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
@@ -1854,28 +1873,28 @@
         <v>24002</v>
       </c>
       <c r="B4" s="6">
-        <v>3706</v>
+        <v>3713</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D4" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E4" s="6">
         <v>1</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
@@ -1883,28 +1902,28 @@
         <v>24003</v>
       </c>
       <c r="B5" s="6">
-        <v>3707</v>
+        <v>3714</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D5" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E5" s="6">
         <v>1</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
@@ -1912,28 +1931,28 @@
         <v>24004</v>
       </c>
       <c r="B6" s="6">
-        <v>3708</v>
+        <v>3715</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D6" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E6" s="6">
         <v>1</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
@@ -1941,28 +1960,28 @@
         <v>24005</v>
       </c>
       <c r="B7" s="6">
-        <v>3709</v>
+        <v>3716</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D7" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E7" s="6">
         <v>1</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
@@ -1970,28 +1989,28 @@
         <v>24006</v>
       </c>
       <c r="B8" s="6">
-        <v>3710</v>
+        <v>3717</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D8" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E8" s="6">
         <v>1</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
@@ -1999,28 +2018,28 @@
         <v>24007</v>
       </c>
       <c r="B9" s="6">
-        <v>3711</v>
+        <v>3718</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D9" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E9" s="6">
         <v>1</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
@@ -2028,28 +2047,28 @@
         <v>24008</v>
       </c>
       <c r="B10" s="6">
-        <v>3712</v>
+        <v>3719</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D10" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E10" s="6">
         <v>1</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.3">
@@ -2057,10 +2076,10 @@
         <v>24009</v>
       </c>
       <c r="B11" s="6">
-        <v>3713</v>
+        <v>3720</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D11" s="6">
         <v>2</v>
@@ -2069,16 +2088,16 @@
         <v>1</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.3">
@@ -2086,10 +2105,10 @@
         <v>24010</v>
       </c>
       <c r="B12" s="6">
-        <v>3714</v>
+        <v>3721</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D12" s="6">
         <v>2</v>
@@ -2098,16 +2117,16 @@
         <v>1</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.3">
@@ -2115,10 +2134,10 @@
         <v>24011</v>
       </c>
       <c r="B13" s="6">
-        <v>3715</v>
+        <v>3722</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D13" s="6">
         <v>2</v>
@@ -2127,16 +2146,16 @@
         <v>1</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.3">
@@ -2144,10 +2163,10 @@
         <v>24012</v>
       </c>
       <c r="B14" s="6">
-        <v>3716</v>
+        <v>3723</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D14" s="6">
         <v>2</v>
@@ -2156,16 +2175,16 @@
         <v>1</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.3">
@@ -2173,10 +2192,10 @@
         <v>24013</v>
       </c>
       <c r="B15" s="6">
-        <v>3717</v>
+        <v>3724</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D15" s="6">
         <v>2</v>
@@ -2185,16 +2204,16 @@
         <v>1</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.3">
@@ -2202,10 +2221,10 @@
         <v>24014</v>
       </c>
       <c r="B16" s="6">
-        <v>3718</v>
+        <v>3725</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D16" s="6">
         <v>2</v>
@@ -2214,16 +2233,16 @@
         <v>1</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
@@ -2231,10 +2250,10 @@
         <v>24015</v>
       </c>
       <c r="B17" s="6">
-        <v>3719</v>
+        <v>3726</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D17" s="6">
         <v>2</v>
@@ -2243,16 +2262,16 @@
         <v>1</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
@@ -2260,10 +2279,10 @@
         <v>24016</v>
       </c>
       <c r="B18" s="6">
-        <v>3720</v>
+        <v>3727</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D18" s="6">
         <v>2</v>
@@ -2272,16 +2291,16 @@
         <v>1</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="I18" s="6" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
@@ -2289,10 +2308,10 @@
         <v>24017</v>
       </c>
       <c r="B19" s="6">
-        <v>3721</v>
+        <v>3728</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D19" s="6">
         <v>2</v>
@@ -2301,16 +2320,16 @@
         <v>1</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="I19" s="6" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
@@ -2318,10 +2337,10 @@
         <v>24018</v>
       </c>
       <c r="B20" s="6">
-        <v>3722</v>
+        <v>3729</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D20" s="6">
         <v>2</v>
@@ -2330,16 +2349,16 @@
         <v>1</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="I20" s="6" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
@@ -2347,10 +2366,10 @@
         <v>24019</v>
       </c>
       <c r="B21" s="6">
-        <v>3723</v>
+        <v>3730</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D21" s="6">
         <v>2</v>
@@ -2359,16 +2378,16 @@
         <v>1</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="I21" s="6" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
@@ -2376,10 +2395,10 @@
         <v>24020</v>
       </c>
       <c r="B22" s="6">
-        <v>3724</v>
+        <v>3731</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D22" s="6">
         <v>2</v>
@@ -2388,16 +2407,16 @@
         <v>1</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="I22" s="6" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
@@ -2405,10 +2424,10 @@
         <v>24021</v>
       </c>
       <c r="B23" s="6">
-        <v>3725</v>
+        <v>3732</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D23" s="6">
         <v>2</v>
@@ -2417,16 +2436,16 @@
         <v>1</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="I23" s="6" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
@@ -2434,10 +2453,10 @@
         <v>24022</v>
       </c>
       <c r="B24" s="6">
-        <v>3726</v>
+        <v>3733</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D24" s="6">
         <v>2</v>
@@ -2446,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>173</v>
+        <v>143</v>
       </c>
       <c r="H24" s="6" t="s">
-        <v>174</v>
+        <v>144</v>
       </c>
       <c r="I24" s="6" t="s">
-        <v>175</v>
+        <v>145</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
@@ -2463,28 +2482,28 @@
         <v>24023</v>
       </c>
       <c r="B25" s="6">
-        <v>3727</v>
+        <v>3734</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D25" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E25" s="6">
         <v>1</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>173</v>
+        <v>143</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>174</v>
+        <v>144</v>
       </c>
       <c r="I25" s="6" t="s">
-        <v>175</v>
+        <v>145</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
@@ -2492,28 +2511,28 @@
         <v>24024</v>
       </c>
       <c r="B26" s="6">
-        <v>3728</v>
+        <v>3735</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D26" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E26" s="6">
         <v>1</v>
       </c>
       <c r="F26" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="G26" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="G26" s="6" t="s">
-        <v>173</v>
-      </c>
       <c r="H26" s="6" t="s">
-        <v>174</v>
+        <v>147</v>
       </c>
       <c r="I26" s="6" t="s">
-        <v>175</v>
+        <v>148</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
@@ -2521,28 +2540,28 @@
         <v>24025</v>
       </c>
       <c r="B27" s="6">
-        <v>3729</v>
+        <v>3736</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D27" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E27" s="6">
         <v>1</v>
       </c>
       <c r="F27" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="G27" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="G27" s="6" t="s">
-        <v>173</v>
-      </c>
       <c r="H27" s="6" t="s">
-        <v>174</v>
+        <v>147</v>
       </c>
       <c r="I27" s="6" t="s">
-        <v>175</v>
+        <v>148</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
@@ -2550,28 +2569,28 @@
         <v>24026</v>
       </c>
       <c r="B28" s="6">
-        <v>3730</v>
+        <v>3737</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D28" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E28" s="6">
         <v>1</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>173</v>
+        <v>149</v>
       </c>
       <c r="H28" s="6" t="s">
-        <v>174</v>
+        <v>150</v>
       </c>
       <c r="I28" s="6" t="s">
-        <v>175</v>
+        <v>151</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
@@ -2579,28 +2598,28 @@
         <v>24027</v>
       </c>
       <c r="B29" s="6">
-        <v>3731</v>
+        <v>3738</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D29" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E29" s="6">
         <v>1</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>173</v>
+        <v>149</v>
       </c>
       <c r="H29" s="6" t="s">
-        <v>174</v>
+        <v>150</v>
       </c>
       <c r="I29" s="6" t="s">
-        <v>175</v>
+        <v>151</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
@@ -2608,28 +2627,28 @@
         <v>24028</v>
       </c>
       <c r="B30" s="6">
-        <v>3732</v>
+        <v>3739</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D30" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E30" s="6">
         <v>1</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>173</v>
+        <v>149</v>
       </c>
       <c r="H30" s="6" t="s">
-        <v>174</v>
+        <v>150</v>
       </c>
       <c r="I30" s="6" t="s">
-        <v>175</v>
+        <v>151</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
@@ -2637,28 +2656,28 @@
         <v>24029</v>
       </c>
       <c r="B31" s="6">
-        <v>3733</v>
+        <v>3740</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D31" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E31" s="6">
         <v>1</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="H31" s="6" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="I31" s="6" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
@@ -2666,10 +2685,10 @@
         <v>24030</v>
       </c>
       <c r="B32" s="6">
-        <v>3734</v>
+        <v>3741</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D32" s="6">
         <v>3</v>
@@ -2678,16 +2697,16 @@
         <v>1</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="H32" s="6" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="I32" s="6" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
@@ -2695,10 +2714,10 @@
         <v>24031</v>
       </c>
       <c r="B33" s="6">
-        <v>3735</v>
+        <v>3742</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D33" s="6">
         <v>3</v>
@@ -2707,16 +2726,16 @@
         <v>1</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="G33" s="6" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="H33" s="6" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="I33" s="6" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
@@ -2724,10 +2743,10 @@
         <v>24032</v>
       </c>
       <c r="B34" s="6">
-        <v>3736</v>
+        <v>3743</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D34" s="6">
         <v>3</v>
@@ -2736,16 +2755,16 @@
         <v>1</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="H34" s="6" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="I34" s="6" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
@@ -2753,10 +2772,10 @@
         <v>24033</v>
       </c>
       <c r="B35" s="6">
-        <v>3737</v>
+        <v>3744</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D35" s="6">
         <v>3</v>
@@ -2765,16 +2784,16 @@
         <v>1</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="H35" s="6" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="I35" s="6" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
@@ -2782,10 +2801,10 @@
         <v>24034</v>
       </c>
       <c r="B36" s="6">
-        <v>3738</v>
+        <v>3745</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D36" s="6">
         <v>3</v>
@@ -2794,16 +2813,16 @@
         <v>1</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="G36" s="6" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="H36" s="6" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="I36" s="6" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
@@ -2811,10 +2830,10 @@
         <v>24035</v>
       </c>
       <c r="B37" s="6">
-        <v>3739</v>
+        <v>3746</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D37" s="6">
         <v>3</v>
@@ -2823,16 +2842,16 @@
         <v>1</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="G37" s="6" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="H37" s="6" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="I37" s="6" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
@@ -2840,10 +2859,10 @@
         <v>24036</v>
       </c>
       <c r="B38" s="6">
-        <v>3740</v>
+        <v>3747</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D38" s="6">
         <v>3</v>
@@ -2852,16 +2871,16 @@
         <v>1</v>
       </c>
       <c r="F38" s="6" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="G38" s="6" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="H38" s="6" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="I38" s="6" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
@@ -2869,10 +2888,10 @@
         <v>24037</v>
       </c>
       <c r="B39" s="6">
-        <v>3741</v>
+        <v>3748</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D39" s="6">
         <v>3</v>
@@ -2881,16 +2900,16 @@
         <v>1</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="H39" s="6" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="I39" s="6" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
@@ -2898,10 +2917,10 @@
         <v>24038</v>
       </c>
       <c r="B40" s="6">
-        <v>3742</v>
+        <v>3749</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D40" s="6">
         <v>3</v>
@@ -2910,16 +2929,16 @@
         <v>1</v>
       </c>
       <c r="F40" s="6" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="H40" s="6" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="I40" s="6" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
@@ -2927,10 +2946,10 @@
         <v>24039</v>
       </c>
       <c r="B41" s="6">
-        <v>3743</v>
+        <v>3750</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D41" s="6">
         <v>3</v>
@@ -2939,16 +2958,16 @@
         <v>1</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="H41" s="6" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="I41" s="6" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
@@ -2956,10 +2975,10 @@
         <v>24040</v>
       </c>
       <c r="B42" s="6">
-        <v>3744</v>
+        <v>3751</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D42" s="6">
         <v>3</v>
@@ -2968,16 +2987,16 @@
         <v>1</v>
       </c>
       <c r="F42" s="6" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="G42" s="6" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="H42" s="6" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="I42" s="6" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.3">
@@ -2985,28 +3004,28 @@
         <v>24041</v>
       </c>
       <c r="B43" s="6">
-        <v>3745</v>
+        <v>3752</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D43" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E43" s="6">
         <v>1</v>
       </c>
       <c r="F43" s="6" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="H43" s="6" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="I43" s="6" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
@@ -3014,19 +3033,19 @@
         <v>24042</v>
       </c>
       <c r="B44" s="6">
-        <v>3746</v>
+        <v>3753</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D44" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E44" s="6">
         <v>1</v>
       </c>
       <c r="F44" s="6" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="G44" s="6" t="s">
         <v>167</v>
@@ -3043,28 +3062,28 @@
         <v>24043</v>
       </c>
       <c r="B45" s="6">
-        <v>3747</v>
+        <v>3754</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D45" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E45" s="6">
         <v>1</v>
       </c>
       <c r="F45" s="6" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="G45" s="6" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="H45" s="6" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="I45" s="6" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.3">
@@ -3072,19 +3091,19 @@
         <v>24044</v>
       </c>
       <c r="B46" s="6">
-        <v>3748</v>
+        <v>3755</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D46" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E46" s="6">
         <v>1</v>
       </c>
       <c r="F46" s="6" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="G46" s="6" t="s">
         <v>170</v>
@@ -3101,28 +3120,28 @@
         <v>24045</v>
       </c>
       <c r="B47" s="6">
-        <v>3749</v>
+        <v>3756</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D47" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E47" s="6">
         <v>1</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="G47" s="6" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="H47" s="6" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="I47" s="6" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.3">
@@ -3130,28 +3149,28 @@
         <v>24046</v>
       </c>
       <c r="B48" s="6">
-        <v>3750</v>
+        <v>3757</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D48" s="6">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E48" s="6">
         <v>1</v>
       </c>
       <c r="F48" s="6" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="G48" s="6" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="H48" s="6" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="I48" s="6" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.3">
@@ -3159,28 +3178,28 @@
         <v>24047</v>
       </c>
       <c r="B49" s="6">
-        <v>3751</v>
+        <v>3758</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D49" s="6">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E49" s="6">
         <v>1</v>
       </c>
       <c r="F49" s="6" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="G49" s="6" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="H49" s="6" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="I49" s="6" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.3">
@@ -3188,19 +3207,19 @@
         <v>24048</v>
       </c>
       <c r="B50" s="6">
-        <v>3752</v>
+        <v>3759</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D50" s="6">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E50" s="6">
         <v>1</v>
       </c>
       <c r="F50" s="6" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="G50" s="6" t="s">
         <v>176</v>
@@ -3217,28 +3236,28 @@
         <v>24049</v>
       </c>
       <c r="B51" s="6">
-        <v>3753</v>
+        <v>3760</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D51" s="6">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E51" s="6">
         <v>1</v>
       </c>
       <c r="F51" s="6" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="G51" s="6" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="H51" s="6" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="I51" s="6" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.3">
@@ -3246,28 +3265,28 @@
         <v>24050</v>
       </c>
       <c r="B52" s="6">
-        <v>3754</v>
+        <v>3761</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D52" s="6">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E52" s="6">
         <v>1</v>
       </c>
       <c r="F52" s="6" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="G52" s="6" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="H52" s="6" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="I52" s="6" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.3">
@@ -3275,28 +3294,28 @@
         <v>24051</v>
       </c>
       <c r="B53" s="6">
-        <v>3755</v>
+        <v>3762</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D53" s="6">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E53" s="6">
         <v>1</v>
       </c>
       <c r="F53" s="6" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="G53" s="6" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="H53" s="6" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="I53" s="6" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.3">
@@ -3304,28 +3323,28 @@
         <v>24052</v>
       </c>
       <c r="B54" s="6">
-        <v>3756</v>
+        <v>3763</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D54" s="6">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E54" s="6">
         <v>1</v>
       </c>
       <c r="F54" s="6" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="G54" s="6" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="H54" s="6" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="I54" s="6" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.3">
@@ -3333,28 +3352,28 @@
         <v>24053</v>
       </c>
       <c r="B55" s="6">
-        <v>3757</v>
+        <v>3764</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D55" s="6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E55" s="6">
         <v>1</v>
       </c>
       <c r="F55" s="6" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="G55" s="6" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="H55" s="6" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="I55" s="6" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.3">
@@ -3362,28 +3381,28 @@
         <v>24054</v>
       </c>
       <c r="B56" s="6">
-        <v>3758</v>
+        <v>3765</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D56" s="6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E56" s="6">
         <v>1</v>
       </c>
       <c r="F56" s="6" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="G56" s="6" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="H56" s="6" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="I56" s="6" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.3">
@@ -3391,28 +3410,28 @@
         <v>24055</v>
       </c>
       <c r="B57" s="6">
-        <v>3759</v>
+        <v>3766</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D57" s="6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E57" s="6">
         <v>1</v>
       </c>
       <c r="F57" s="6" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="G57" s="6" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="H57" s="6" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="I57" s="6" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.3">
@@ -3420,28 +3439,28 @@
         <v>24056</v>
       </c>
       <c r="B58" s="6">
-        <v>3760</v>
+        <v>3767</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D58" s="6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E58" s="6">
         <v>1</v>
       </c>
       <c r="F58" s="6" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="G58" s="6" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="H58" s="6" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="I58" s="6" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.3">
@@ -3449,28 +3468,28 @@
         <v>24057</v>
       </c>
       <c r="B59" s="6">
-        <v>3761</v>
+        <v>3768</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D59" s="6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E59" s="6">
         <v>1</v>
       </c>
       <c r="F59" s="6" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="G59" s="6" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="H59" s="6" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="I59" s="6" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.3">
@@ -3478,28 +3497,28 @@
         <v>24058</v>
       </c>
       <c r="B60" s="6">
-        <v>3762</v>
+        <v>3769</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D60" s="6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E60" s="6">
         <v>1</v>
       </c>
       <c r="F60" s="6" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="G60" s="6" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="H60" s="6" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="I60" s="6" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.3">
@@ -3507,10 +3526,10 @@
         <v>24059</v>
       </c>
       <c r="B61" s="6">
-        <v>3763</v>
+        <v>3770</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D61" s="6">
         <v>7</v>
@@ -3519,16 +3538,16 @@
         <v>1</v>
       </c>
       <c r="F61" s="6" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="G61" s="6" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="H61" s="6" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="I61" s="6" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.3">
@@ -3536,10 +3555,10 @@
         <v>24060</v>
       </c>
       <c r="B62" s="6">
-        <v>3764</v>
+        <v>3771</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D62" s="6">
         <v>7</v>
@@ -3548,16 +3567,16 @@
         <v>1</v>
       </c>
       <c r="F62" s="6" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="G62" s="6" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="H62" s="6" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="I62" s="6" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.3">
@@ -3565,10 +3584,10 @@
         <v>24061</v>
       </c>
       <c r="B63" s="6">
-        <v>3765</v>
+        <v>3772</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D63" s="6">
         <v>7</v>
@@ -3577,16 +3596,16 @@
         <v>1</v>
       </c>
       <c r="F63" s="6" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="G63" s="6" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="H63" s="6" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="I63" s="6" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.3">
@@ -3594,10 +3613,10 @@
         <v>24062</v>
       </c>
       <c r="B64" s="6">
-        <v>3766</v>
+        <v>3773</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D64" s="6">
         <v>7</v>
@@ -3606,16 +3625,16 @@
         <v>1</v>
       </c>
       <c r="F64" s="6" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="G64" s="6" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="H64" s="6" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="I64" s="6" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.3">
@@ -3623,10 +3642,10 @@
         <v>24063</v>
       </c>
       <c r="B65" s="6">
-        <v>3767</v>
+        <v>3774</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D65" s="6">
         <v>7</v>
@@ -3635,16 +3654,16 @@
         <v>1</v>
       </c>
       <c r="F65" s="6" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="G65" s="6" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="H65" s="6" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="I65" s="6" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.3">
@@ -3652,10 +3671,10 @@
         <v>24064</v>
       </c>
       <c r="B66" s="6">
-        <v>3768</v>
+        <v>3775</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D66" s="6">
         <v>7</v>
@@ -3664,16 +3683,16 @@
         <v>1</v>
       </c>
       <c r="F66" s="6" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="G66" s="6" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="H66" s="6" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="I66" s="6" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.3">
@@ -3681,10 +3700,10 @@
         <v>24065</v>
       </c>
       <c r="B67" s="6">
-        <v>3769</v>
+        <v>3776</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D67" s="6">
         <v>7</v>
@@ -3693,16 +3712,16 @@
         <v>1</v>
       </c>
       <c r="F67" s="6" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="G67" s="6" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="H67" s="6" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="I67" s="6" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.3">
@@ -3710,10 +3729,10 @@
         <v>24066</v>
       </c>
       <c r="B68" s="6">
-        <v>3770</v>
+        <v>3777</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D68" s="6">
         <v>7</v>
@@ -3722,16 +3741,16 @@
         <v>1</v>
       </c>
       <c r="F68" s="6" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="G68" s="6" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="H68" s="6" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="I68" s="6" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.3">
@@ -3739,10 +3758,10 @@
         <v>24067</v>
       </c>
       <c r="B69" s="6">
-        <v>3771</v>
+        <v>3778</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D69" s="6">
         <v>7</v>
@@ -3751,16 +3770,16 @@
         <v>1</v>
       </c>
       <c r="F69" s="6" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="G69" s="6" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="H69" s="6" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="I69" s="6" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.3">
@@ -3768,10 +3787,10 @@
         <v>24068</v>
       </c>
       <c r="B70" s="6">
-        <v>3772</v>
+        <v>3779</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D70" s="6">
         <v>7</v>
@@ -3780,16 +3799,16 @@
         <v>1</v>
       </c>
       <c r="F70" s="6" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="G70" s="6" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="H70" s="6" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="I70" s="6" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.3">
@@ -3797,10 +3816,10 @@
         <v>24069</v>
       </c>
       <c r="B71" s="6">
-        <v>3773</v>
+        <v>3780</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D71" s="6">
         <v>7</v>
@@ -3809,16 +3828,16 @@
         <v>1</v>
       </c>
       <c r="F71" s="6" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="G71" s="6" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="H71" s="6" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="I71" s="6" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.3">
@@ -3826,10 +3845,10 @@
         <v>24070</v>
       </c>
       <c r="B72" s="6">
-        <v>3774</v>
+        <v>3781</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D72" s="6">
         <v>7</v>
@@ -3838,16 +3857,16 @@
         <v>1</v>
       </c>
       <c r="F72" s="6" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="G72" s="6" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="H72" s="6" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="I72" s="6" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.3">
@@ -3855,10 +3874,10 @@
         <v>24071</v>
       </c>
       <c r="B73" s="6">
-        <v>3775</v>
+        <v>3782</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D73" s="6">
         <v>7</v>
@@ -3867,16 +3886,16 @@
         <v>1</v>
       </c>
       <c r="F73" s="6" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="G73" s="6" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="H73" s="6" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="I73" s="6" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.3">
@@ -3884,10 +3903,10 @@
         <v>24072</v>
       </c>
       <c r="B74" s="6">
-        <v>3776</v>
+        <v>3783</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D74" s="6">
         <v>7</v>
@@ -3896,16 +3915,16 @@
         <v>1</v>
       </c>
       <c r="F74" s="6" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="G74" s="6" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="H74" s="6" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="I74" s="6" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.3">
@@ -3913,10 +3932,10 @@
         <v>24073</v>
       </c>
       <c r="B75" s="6">
-        <v>3777</v>
+        <v>3784</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D75" s="6">
         <v>7</v>
@@ -3925,16 +3944,16 @@
         <v>1</v>
       </c>
       <c r="F75" s="6" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="G75" s="6" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="H75" s="6" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="I75" s="6" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.3">
@@ -3942,28 +3961,28 @@
         <v>24074</v>
       </c>
       <c r="B76" s="6">
-        <v>3778</v>
+        <v>3785</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D76" s="6">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E76" s="6">
         <v>1</v>
       </c>
       <c r="F76" s="6" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="G76" s="6" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="H76" s="6" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="I76" s="6" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.3">
@@ -3971,28 +3990,28 @@
         <v>24075</v>
       </c>
       <c r="B77" s="6">
-        <v>3779</v>
+        <v>3786</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D77" s="6">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E77" s="6">
         <v>1</v>
       </c>
       <c r="F77" s="6" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="G77" s="6" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="H77" s="6" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="I77" s="6" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.3">
@@ -4000,28 +4019,28 @@
         <v>24076</v>
       </c>
       <c r="B78" s="6">
-        <v>3780</v>
+        <v>3787</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D78" s="6">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E78" s="6">
         <v>1</v>
       </c>
       <c r="F78" s="6" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="G78" s="6" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="H78" s="6" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="I78" s="6" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.3">
@@ -4029,28 +4048,28 @@
         <v>24077</v>
       </c>
       <c r="B79" s="6">
-        <v>3781</v>
+        <v>3788</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D79" s="6">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E79" s="6">
         <v>1</v>
       </c>
       <c r="F79" s="6" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="G79" s="6" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="H79" s="6" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="I79" s="6" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.3">
@@ -4058,28 +4077,28 @@
         <v>24078</v>
       </c>
       <c r="B80" s="6">
-        <v>3782</v>
+        <v>3789</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D80" s="6">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E80" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F80" s="6" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="G80" s="6" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="H80" s="6" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="I80" s="6" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.3">
@@ -4087,28 +4106,28 @@
         <v>24079</v>
       </c>
       <c r="B81" s="6">
-        <v>3783</v>
+        <v>3790</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D81" s="6">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E81" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F81" s="6" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="G81" s="6" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="H81" s="6" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="I81" s="6" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.3">
@@ -4116,28 +4135,28 @@
         <v>24080</v>
       </c>
       <c r="B82" s="6">
-        <v>3784</v>
+        <v>3791</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D82" s="6">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E82" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F82" s="6" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="G82" s="6" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="H82" s="6" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="I82" s="6" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.3">
@@ -4145,28 +4164,28 @@
         <v>24081</v>
       </c>
       <c r="B83" s="6">
-        <v>3785</v>
+        <v>3792</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D83" s="6">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E83" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F83" s="6" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="G83" s="6" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="H83" s="6" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="I83" s="6" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.3">
@@ -4174,28 +4193,28 @@
         <v>24082</v>
       </c>
       <c r="B84" s="6">
-        <v>3786</v>
+        <v>3793</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D84" s="6">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E84" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F84" s="6" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="G84" s="6" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="H84" s="6" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="I84" s="6" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.3">
@@ -4203,28 +4222,28 @@
         <v>24083</v>
       </c>
       <c r="B85" s="6">
-        <v>3787</v>
+        <v>3794</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D85" s="6">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E85" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F85" s="6" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="G85" s="6" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="H85" s="6" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="I85" s="6" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.3">
@@ -4232,28 +4251,28 @@
         <v>24084</v>
       </c>
       <c r="B86" s="6">
-        <v>3788</v>
+        <v>3795</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D86" s="6">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E86" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F86" s="6" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="G86" s="6" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="H86" s="6" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="I86" s="6" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.3">
@@ -4261,10 +4280,10 @@
         <v>24085</v>
       </c>
       <c r="B87" s="6">
-        <v>3789</v>
+        <v>3796</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D87" s="6">
         <v>9</v>
@@ -4273,16 +4292,16 @@
         <v>0</v>
       </c>
       <c r="F87" s="6" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="G87" s="6" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="H87" s="6" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="I87" s="6" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.3">
@@ -4290,10 +4309,10 @@
         <v>24086</v>
       </c>
       <c r="B88" s="6">
-        <v>3790</v>
+        <v>3797</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D88" s="6">
         <v>9</v>
@@ -4302,16 +4321,16 @@
         <v>0</v>
       </c>
       <c r="F88" s="6" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="G88" s="6" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="H88" s="6" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="I88" s="6" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.3">
@@ -4319,10 +4338,10 @@
         <v>24087</v>
       </c>
       <c r="B89" s="6">
-        <v>3791</v>
+        <v>3798</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D89" s="6">
         <v>9</v>
@@ -4331,16 +4350,16 @@
         <v>0</v>
       </c>
       <c r="F89" s="6" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="G89" s="6" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="H89" s="6" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="I89" s="6" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.3">
@@ -4348,10 +4367,10 @@
         <v>24088</v>
       </c>
       <c r="B90" s="6">
-        <v>3792</v>
+        <v>3799</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D90" s="6">
         <v>9</v>
@@ -4360,16 +4379,16 @@
         <v>0</v>
       </c>
       <c r="F90" s="6" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="G90" s="6" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="H90" s="6" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="I90" s="6" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.3">
@@ -4377,10 +4396,10 @@
         <v>24089</v>
       </c>
       <c r="B91" s="6">
-        <v>3793</v>
+        <v>3800</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D91" s="6">
         <v>9</v>
@@ -4389,16 +4408,16 @@
         <v>0</v>
       </c>
       <c r="F91" s="6" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="G91" s="6" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="H91" s="6" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="I91" s="6" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.3">
@@ -4406,10 +4425,10 @@
         <v>24090</v>
       </c>
       <c r="B92" s="6">
-        <v>3794</v>
+        <v>3801</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D92" s="6">
         <v>9</v>
@@ -4418,16 +4437,16 @@
         <v>0</v>
       </c>
       <c r="F92" s="6" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="G92" s="6" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="H92" s="6" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="I92" s="6" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.3">
@@ -4435,10 +4454,10 @@
         <v>24091</v>
       </c>
       <c r="B93" s="6">
-        <v>3795</v>
+        <v>3802</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D93" s="6">
         <v>9</v>
@@ -4447,16 +4466,16 @@
         <v>0</v>
       </c>
       <c r="F93" s="6" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="G93" s="6" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="H93" s="6" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="I93" s="6" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.3">
@@ -4464,10 +4483,10 @@
         <v>24092</v>
       </c>
       <c r="B94" s="6">
-        <v>3796</v>
+        <v>3803</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D94" s="6">
         <v>9</v>
@@ -4476,16 +4495,16 @@
         <v>0</v>
       </c>
       <c r="F94" s="6" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="G94" s="6" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="H94" s="6" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="I94" s="6" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.3">
@@ -4493,28 +4512,28 @@
         <v>24093</v>
       </c>
       <c r="B95" s="6">
-        <v>3797</v>
+        <v>3804</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>126</v>
+        <v>195</v>
       </c>
       <c r="D95" s="6">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E95" s="6">
         <v>0</v>
       </c>
       <c r="F95" s="6" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="G95" s="6" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="H95" s="6" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="I95" s="6" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.3">
@@ -4522,173 +4541,28 @@
         <v>24094</v>
       </c>
       <c r="B96" s="6">
-        <v>3798</v>
+        <v>3805</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>127</v>
+        <v>196</v>
       </c>
       <c r="D96" s="6">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E96" s="6">
         <v>0</v>
       </c>
       <c r="F96" s="6" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="G96" s="6" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="H96" s="6" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="I96" s="6" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A97" s="6">
-        <v>24095</v>
-      </c>
-      <c r="B97" s="6">
-        <v>3799</v>
-      </c>
-      <c r="C97" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="D97" s="6">
-        <v>9</v>
-      </c>
-      <c r="E97" s="6">
-        <v>0</v>
-      </c>
-      <c r="F97" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="G97" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="H97" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="I97" s="6" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A98" s="6">
-        <v>24096</v>
-      </c>
-      <c r="B98" s="6">
-        <v>3800</v>
-      </c>
-      <c r="C98" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="D98" s="6">
-        <v>9</v>
-      </c>
-      <c r="E98" s="6">
-        <v>0</v>
-      </c>
-      <c r="F98" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="G98" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="H98" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="I98" s="6" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A99" s="6">
-        <v>24097</v>
-      </c>
-      <c r="B99" s="6">
-        <v>3801</v>
-      </c>
-      <c r="C99" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="D99" s="6">
-        <v>9</v>
-      </c>
-      <c r="E99" s="6">
-        <v>0</v>
-      </c>
-      <c r="F99" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="G99" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="H99" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="I99" s="6" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A100" s="6">
-        <v>24098</v>
-      </c>
-      <c r="B100" s="6">
-        <v>3802</v>
-      </c>
-      <c r="C100" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="D100" s="6">
-        <v>9</v>
-      </c>
-      <c r="E100" s="6">
-        <v>0</v>
-      </c>
-      <c r="F100" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="G100" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="H100" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="I100" s="6" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A101" s="6">
-        <v>24099</v>
-      </c>
-      <c r="B101" s="6">
-        <v>3803</v>
-      </c>
-      <c r="C101" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="D101" s="6">
-        <v>9</v>
-      </c>
-      <c r="E101" s="6">
-        <v>0</v>
-      </c>
-      <c r="F101" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="G101" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="H101" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="I101" s="6" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
     </row>
   </sheetData>

--- a/로스트아크 - 비브린 큐브 기획서/vivrincube_contant_table.xlsx
+++ b/로스트아크 - 비브린 큐브 기획서/vivrincube_contant_table.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\개인 자료\포트폴리오\portfolio\로스트아크 - 비브린 큐브 기획서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCE01A02-5BA5-4EDD-B39D-8FF2FE52D5E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CB2165F-2B27-4658-930C-98BE8F6F921F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="540" windowWidth="29040" windowHeight="15720" xr2:uid="{6832B32A-0745-41EA-9852-9906C71E324C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6832B32A-0745-41EA-9852-9906C71E324C}"/>
   </bookViews>
   <sheets>
     <sheet name="info" sheetId="2" r:id="rId1"/>
@@ -455,14 +455,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>파티가 같은 레벨에 입장</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>파티가 별개의 레벨에 입장</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>콘텐츠 고유 아이디</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -479,10 +471,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>레벨 입장 방식</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>미사용</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -747,6 +735,18 @@
   </si>
   <si>
     <t>vivrincube_contentlist02_prooffield</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>콘텐츠 입장, 진행 방식</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>같은 레벨에 입장, 별개 콘텐츠 진행</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>같은 레벨에 입장, 동일 콘텐츠 진행</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1007,11 +1007,11 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1019,11 +1019,11 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1388,9 +1388,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDA345ED-973C-497C-8904-E3AD2A2F3345}">
   <dimension ref="B2:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10:C20"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1448,7 +1446,7 @@
         <v>128</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>7</v>
@@ -1457,7 +1455,7 @@
         <v>8</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="G7" s="6" t="s">
         <v>8</v>
@@ -1471,7 +1469,7 @@
         <v>28</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>21</v>
@@ -1480,7 +1478,7 @@
         <v>20</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>29</v>
@@ -1491,10 +1489,10 @@
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B9" s="13" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D9" s="21" t="s">
         <v>31</v>
@@ -1505,25 +1503,25 @@
       <c r="H9" s="23"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="19" t="s">
         <v>124</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>189</v>
-      </c>
-      <c r="D10" s="19" t="s">
+        <v>186</v>
+      </c>
+      <c r="D10" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="E10" s="19" t="s">
+      <c r="E10" s="15" t="s">
         <v>8</v>
       </c>
       <c r="F10" s="6">
         <v>0</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="H10" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="H10" s="15" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1536,7 +1534,7 @@
         <v>1</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="H11" s="24"/>
     </row>
@@ -1645,29 +1643,29 @@
       <c r="H19" s="24"/>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B20" s="16"/>
+      <c r="B20" s="20"/>
       <c r="C20" s="18"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="20"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
       <c r="F20" s="6">
         <v>10</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="H20" s="20"/>
+        <v>189</v>
+      </c>
+      <c r="H20" s="16"/>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B21" s="15" t="s">
+      <c r="B21" s="19" t="s">
         <v>24</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>134</v>
-      </c>
-      <c r="D21" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="D21" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="E21" s="19" t="s">
+      <c r="E21" s="15" t="s">
         <v>20</v>
       </c>
       <c r="F21" s="6">
@@ -1679,10 +1677,10 @@
       <c r="H21" s="6"/>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B22" s="16"/>
+      <c r="B22" s="20"/>
       <c r="C22" s="18"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
       <c r="F22" s="6" t="s">
         <v>22</v>
       </c>
@@ -1694,48 +1692,43 @@
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B23" s="15" t="s">
+      <c r="B23" s="19" t="s">
         <v>126</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>135</v>
-      </c>
-      <c r="D23" s="19" t="s">
+        <v>200</v>
+      </c>
+      <c r="D23" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="E23" s="19" t="s">
+      <c r="E23" s="15" t="s">
         <v>20</v>
       </c>
       <c r="F23" s="6">
         <v>0</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="H23" s="19" t="s">
+        <v>201</v>
+      </c>
+      <c r="H23" s="15" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B24" s="16"/>
+      <c r="B24" s="20"/>
       <c r="C24" s="18"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="20"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
       <c r="F24" s="6">
         <v>1</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="H24" s="20"/>
+        <v>202</v>
+      </c>
+      <c r="H24" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="B23:B24"/>
     <mergeCell ref="B21:B22"/>
     <mergeCell ref="C21:C22"/>
     <mergeCell ref="D21:D22"/>
@@ -1746,6 +1739,11 @@
     <mergeCell ref="E10:E20"/>
     <mergeCell ref="B10:B20"/>
     <mergeCell ref="C10:C20"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="B23:B24"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1758,7 +1756,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C14" sqref="C14"/>
+      <selection pane="bottomLeft" activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1791,16 +1789,16 @@
         <v>125</v>
       </c>
       <c r="F1" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="I1" s="11" t="s">
         <v>139</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="H1" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="I1" s="11" t="s">
-        <v>142</v>
       </c>
       <c r="J1" s="9"/>
       <c r="K1" s="9"/>
@@ -1818,25 +1816,25 @@
         <v>3711</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="D2" s="6">
+        <v>1</v>
+      </c>
+      <c r="E2" s="6">
+        <v>1</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="G2" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="D2" s="6">
-        <v>1</v>
-      </c>
-      <c r="E2" s="6">
-        <v>1</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>197</v>
-      </c>
       <c r="H2" s="6" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
@@ -1856,16 +1854,16 @@
         <v>1</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
@@ -1885,16 +1883,16 @@
         <v>1</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
@@ -1914,16 +1912,16 @@
         <v>1</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
@@ -1943,16 +1941,16 @@
         <v>1</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
@@ -1972,16 +1970,16 @@
         <v>1</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
@@ -2001,16 +1999,16 @@
         <v>1</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
@@ -2030,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
@@ -2059,16 +2057,16 @@
         <v>1</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.3">
@@ -2088,16 +2086,16 @@
         <v>1</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.3">
@@ -2117,16 +2115,16 @@
         <v>1</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.3">
@@ -2146,16 +2144,16 @@
         <v>1</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.3">
@@ -2175,16 +2173,16 @@
         <v>1</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.3">
@@ -2204,16 +2202,16 @@
         <v>1</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.3">
@@ -2233,16 +2231,16 @@
         <v>1</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
@@ -2262,16 +2260,16 @@
         <v>1</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
@@ -2291,16 +2289,16 @@
         <v>1</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="I18" s="6" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
@@ -2320,16 +2318,16 @@
         <v>1</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="I19" s="6" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
@@ -2349,16 +2347,16 @@
         <v>1</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="I20" s="6" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
@@ -2378,16 +2376,16 @@
         <v>1</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="I21" s="6" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
@@ -2407,16 +2405,16 @@
         <v>1</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="I22" s="6" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
@@ -2436,16 +2434,16 @@
         <v>1</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="I23" s="6" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
@@ -2465,16 +2463,16 @@
         <v>1</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="H24" s="6" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="I24" s="6" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
@@ -2494,16 +2492,16 @@
         <v>1</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="I25" s="6" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
@@ -2523,16 +2521,16 @@
         <v>1</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="H26" s="6" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="I26" s="6" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
@@ -2552,16 +2550,16 @@
         <v>1</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="H27" s="6" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="I27" s="6" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
@@ -2581,16 +2579,16 @@
         <v>1</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="H28" s="6" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="I28" s="6" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
@@ -2610,16 +2608,16 @@
         <v>1</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="H29" s="6" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="I29" s="6" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
@@ -2639,16 +2637,16 @@
         <v>1</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="H30" s="6" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="I30" s="6" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
@@ -2668,16 +2666,16 @@
         <v>1</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="H31" s="6" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="I31" s="6" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
@@ -2697,16 +2695,16 @@
         <v>1</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="H32" s="6" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="I32" s="6" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
@@ -2726,16 +2724,16 @@
         <v>1</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="G33" s="6" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="H33" s="6" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="I33" s="6" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
@@ -2755,16 +2753,16 @@
         <v>1</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="H34" s="6" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="I34" s="6" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
@@ -2784,16 +2782,16 @@
         <v>1</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="H35" s="6" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="I35" s="6" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
@@ -2813,16 +2811,16 @@
         <v>1</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="G36" s="6" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="H36" s="6" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="I36" s="6" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
@@ -2842,16 +2840,16 @@
         <v>1</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="G37" s="6" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="H37" s="6" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="I37" s="6" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
@@ -2871,16 +2869,16 @@
         <v>1</v>
       </c>
       <c r="F38" s="6" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="G38" s="6" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="H38" s="6" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="I38" s="6" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
@@ -2900,16 +2898,16 @@
         <v>1</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="H39" s="6" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="I39" s="6" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
@@ -2929,16 +2927,16 @@
         <v>1</v>
       </c>
       <c r="F40" s="6" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="H40" s="6" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="I40" s="6" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
@@ -2958,16 +2956,16 @@
         <v>1</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="H41" s="6" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="I41" s="6" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
@@ -2987,16 +2985,16 @@
         <v>1</v>
       </c>
       <c r="F42" s="6" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="G42" s="6" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="H42" s="6" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="I42" s="6" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.3">
@@ -3016,16 +3014,16 @@
         <v>1</v>
       </c>
       <c r="F43" s="6" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="H43" s="6" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="I43" s="6" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
@@ -3045,16 +3043,16 @@
         <v>1</v>
       </c>
       <c r="F44" s="6" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="G44" s="6" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="H44" s="6" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="I44" s="6" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
@@ -3074,16 +3072,16 @@
         <v>1</v>
       </c>
       <c r="F45" s="6" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="G45" s="6" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="H45" s="6" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="I45" s="6" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.3">
@@ -3103,16 +3101,16 @@
         <v>1</v>
       </c>
       <c r="F46" s="6" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="G46" s="6" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="H46" s="6" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="I46" s="6" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.3">
@@ -3132,16 +3130,16 @@
         <v>1</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="G47" s="6" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="H47" s="6" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="I47" s="6" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.3">
@@ -3161,16 +3159,16 @@
         <v>1</v>
       </c>
       <c r="F48" s="6" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="G48" s="6" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="H48" s="6" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="I48" s="6" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.3">
@@ -3190,16 +3188,16 @@
         <v>1</v>
       </c>
       <c r="F49" s="6" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="G49" s="6" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="H49" s="6" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="I49" s="6" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.3">
@@ -3219,16 +3217,16 @@
         <v>1</v>
       </c>
       <c r="F50" s="6" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="G50" s="6" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="H50" s="6" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="I50" s="6" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.3">
@@ -3248,16 +3246,16 @@
         <v>1</v>
       </c>
       <c r="F51" s="6" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="G51" s="6" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="H51" s="6" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="I51" s="6" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.3">
@@ -3277,16 +3275,16 @@
         <v>1</v>
       </c>
       <c r="F52" s="6" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="G52" s="6" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="H52" s="6" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="I52" s="6" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.3">
@@ -3306,16 +3304,16 @@
         <v>1</v>
       </c>
       <c r="F53" s="6" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="G53" s="6" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="H53" s="6" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="I53" s="6" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.3">
@@ -3335,16 +3333,16 @@
         <v>1</v>
       </c>
       <c r="F54" s="6" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="G54" s="6" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="H54" s="6" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="I54" s="6" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.3">
@@ -3364,16 +3362,16 @@
         <v>1</v>
       </c>
       <c r="F55" s="6" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="G55" s="6" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="H55" s="6" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="I55" s="6" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.3">
@@ -3393,16 +3391,16 @@
         <v>1</v>
       </c>
       <c r="F56" s="6" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="G56" s="6" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="H56" s="6" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="I56" s="6" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.3">
@@ -3422,16 +3420,16 @@
         <v>1</v>
       </c>
       <c r="F57" s="6" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="G57" s="6" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="H57" s="6" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="I57" s="6" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.3">
@@ -3451,16 +3449,16 @@
         <v>1</v>
       </c>
       <c r="F58" s="6" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="G58" s="6" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="H58" s="6" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="I58" s="6" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.3">
@@ -3480,16 +3478,16 @@
         <v>1</v>
       </c>
       <c r="F59" s="6" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="G59" s="6" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="H59" s="6" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="I59" s="6" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.3">
@@ -3509,16 +3507,16 @@
         <v>1</v>
       </c>
       <c r="F60" s="6" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="G60" s="6" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="H60" s="6" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="I60" s="6" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.3">
@@ -3538,16 +3536,16 @@
         <v>1</v>
       </c>
       <c r="F61" s="6" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="G61" s="6" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="H61" s="6" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="I61" s="6" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.3">
@@ -3567,16 +3565,16 @@
         <v>1</v>
       </c>
       <c r="F62" s="6" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="G62" s="6" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="H62" s="6" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="I62" s="6" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.3">
@@ -3596,16 +3594,16 @@
         <v>1</v>
       </c>
       <c r="F63" s="6" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="G63" s="6" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="H63" s="6" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="I63" s="6" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.3">
@@ -3625,16 +3623,16 @@
         <v>1</v>
       </c>
       <c r="F64" s="6" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="G64" s="6" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="H64" s="6" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="I64" s="6" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.3">
@@ -3654,16 +3652,16 @@
         <v>1</v>
       </c>
       <c r="F65" s="6" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="G65" s="6" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="H65" s="6" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="I65" s="6" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.3">
@@ -3683,16 +3681,16 @@
         <v>1</v>
       </c>
       <c r="F66" s="6" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="G66" s="6" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="H66" s="6" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="I66" s="6" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.3">
@@ -3712,16 +3710,16 @@
         <v>1</v>
       </c>
       <c r="F67" s="6" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="G67" s="6" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="H67" s="6" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="I67" s="6" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.3">
@@ -3741,16 +3739,16 @@
         <v>1</v>
       </c>
       <c r="F68" s="6" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="G68" s="6" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="H68" s="6" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="I68" s="6" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.3">
@@ -3770,16 +3768,16 @@
         <v>1</v>
       </c>
       <c r="F69" s="6" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="G69" s="6" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="H69" s="6" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="I69" s="6" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.3">
@@ -3799,16 +3797,16 @@
         <v>1</v>
       </c>
       <c r="F70" s="6" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="G70" s="6" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="H70" s="6" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="I70" s="6" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.3">
@@ -3828,16 +3826,16 @@
         <v>1</v>
       </c>
       <c r="F71" s="6" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="G71" s="6" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="H71" s="6" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="I71" s="6" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.3">
@@ -3857,16 +3855,16 @@
         <v>1</v>
       </c>
       <c r="F72" s="6" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="G72" s="6" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="H72" s="6" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="I72" s="6" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.3">
@@ -3886,16 +3884,16 @@
         <v>1</v>
       </c>
       <c r="F73" s="6" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="G73" s="6" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="H73" s="6" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="I73" s="6" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.3">
@@ -3915,16 +3913,16 @@
         <v>1</v>
       </c>
       <c r="F74" s="6" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="G74" s="6" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="H74" s="6" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="I74" s="6" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.3">
@@ -3944,16 +3942,16 @@
         <v>1</v>
       </c>
       <c r="F75" s="6" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="G75" s="6" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="H75" s="6" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="I75" s="6" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.3">
@@ -3973,16 +3971,16 @@
         <v>1</v>
       </c>
       <c r="F76" s="6" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="G76" s="6" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="H76" s="6" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="I76" s="6" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.3">
@@ -4002,16 +4000,16 @@
         <v>1</v>
       </c>
       <c r="F77" s="6" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="G77" s="6" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="H77" s="6" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="I77" s="6" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.3">
@@ -4031,16 +4029,16 @@
         <v>1</v>
       </c>
       <c r="F78" s="6" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="G78" s="6" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="H78" s="6" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="I78" s="6" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.3">
@@ -4060,16 +4058,16 @@
         <v>1</v>
       </c>
       <c r="F79" s="6" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="G79" s="6" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="H79" s="6" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="I79" s="6" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.3">
@@ -4089,16 +4087,16 @@
         <v>0</v>
       </c>
       <c r="F80" s="6" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="G80" s="6" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="H80" s="6" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="I80" s="6" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.3">
@@ -4118,16 +4116,16 @@
         <v>0</v>
       </c>
       <c r="F81" s="6" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="G81" s="6" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="H81" s="6" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="I81" s="6" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.3">
@@ -4147,16 +4145,16 @@
         <v>0</v>
       </c>
       <c r="F82" s="6" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="G82" s="6" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="H82" s="6" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="I82" s="6" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.3">
@@ -4176,16 +4174,16 @@
         <v>0</v>
       </c>
       <c r="F83" s="6" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="G83" s="6" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="H83" s="6" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="I83" s="6" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.3">
@@ -4205,16 +4203,16 @@
         <v>0</v>
       </c>
       <c r="F84" s="6" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="G84" s="6" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="H84" s="6" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="I84" s="6" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.3">
@@ -4234,16 +4232,16 @@
         <v>0</v>
       </c>
       <c r="F85" s="6" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="G85" s="6" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="H85" s="6" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="I85" s="6" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.3">
@@ -4263,16 +4261,16 @@
         <v>0</v>
       </c>
       <c r="F86" s="6" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="G86" s="6" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="H86" s="6" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="I86" s="6" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.3">
@@ -4292,16 +4290,16 @@
         <v>0</v>
       </c>
       <c r="F87" s="6" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="G87" s="6" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="H87" s="6" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="I87" s="6" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.3">
@@ -4321,16 +4319,16 @@
         <v>0</v>
       </c>
       <c r="F88" s="6" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="G88" s="6" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="H88" s="6" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="I88" s="6" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.3">
@@ -4350,16 +4348,16 @@
         <v>0</v>
       </c>
       <c r="F89" s="6" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="G89" s="6" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="H89" s="6" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="I89" s="6" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.3">
@@ -4379,16 +4377,16 @@
         <v>0</v>
       </c>
       <c r="F90" s="6" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="G90" s="6" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="H90" s="6" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="I90" s="6" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.3">
@@ -4408,16 +4406,16 @@
         <v>0</v>
       </c>
       <c r="F91" s="6" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="G91" s="6" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="H91" s="6" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="I91" s="6" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.3">
@@ -4437,16 +4435,16 @@
         <v>0</v>
       </c>
       <c r="F92" s="6" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="G92" s="6" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="H92" s="6" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="I92" s="6" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.3">
@@ -4466,16 +4464,16 @@
         <v>0</v>
       </c>
       <c r="F93" s="6" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="G93" s="6" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="H93" s="6" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="I93" s="6" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.3">
@@ -4495,16 +4493,16 @@
         <v>0</v>
       </c>
       <c r="F94" s="6" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="G94" s="6" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="H94" s="6" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="I94" s="6" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.3">
@@ -4515,7 +4513,7 @@
         <v>3804</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D95" s="6">
         <v>10</v>
@@ -4524,16 +4522,16 @@
         <v>0</v>
       </c>
       <c r="F95" s="6" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="G95" s="6" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="H95" s="6" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="I95" s="6" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.3">
@@ -4544,7 +4542,7 @@
         <v>3805</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D96" s="6">
         <v>10</v>
@@ -4553,16 +4551,16 @@
         <v>0</v>
       </c>
       <c r="F96" s="6" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="G96" s="6" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="H96" s="6" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="I96" s="6" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
   </sheetData>
